--- a/仕様書/分割/分割-操作仕様.xlsx
+++ b/仕様書/分割/分割-操作仕様.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C1A393-92AE-41AE-BFEC-F36BC3A97D20}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
     <sheet name="操作仕様 " sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="2">
@@ -29,18 +35,18 @@
     <rPh sb="2" eb="4">
       <t>リレキ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ページ</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>日付</t>
@@ -50,11 +56,11 @@
     <rPh sb="1" eb="2">
       <t>ツ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>モーションリスト</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>モーションリストの追加と統合</t>
@@ -64,14 +70,14 @@
     <rPh sb="12" eb="14">
       <t>トウゴウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>目録</t>
     <rPh sb="0" eb="2">
       <t>モクロク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>目録の追加</t>
@@ -81,11 +87,11 @@
     <rPh sb="3" eb="5">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ギミック</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>特殊ギミック以外のギミックを具体的な説明を修正</t>
@@ -98,14 +104,14 @@
     <rPh sb="21" eb="23">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>操作仕様</t>
     <rPh sb="0" eb="4">
       <t>ソウサシヨウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>「ギミックの操作（方向選ぶタイプ）」を消して、「発動後のギミック操作（方向選択）」に変更した。ギミックの操作の5とP.S.を修正した</t>
@@ -130,7 +136,7 @@
     <rPh sb="62" eb="64">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>特殊ギミック以外のギミックを具体的な説明を更新した</t>
@@ -143,7 +149,7 @@
     <rPh sb="21" eb="23">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>操作仕様を記入した</t>
@@ -153,7 +159,7 @@
     <rPh sb="5" eb="7">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>特殊ギミック以外のギミックをざっと記入した</t>
@@ -166,14 +172,14 @@
     <rPh sb="17" eb="19">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ギミックをざっと分類する</t>
     <rPh sb="8" eb="10">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>３、操作仕様</t>
@@ -183,14 +189,14 @@
     <rPh sb="4" eb="6">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>プレイヤーの操作</t>
     <rPh sb="6" eb="8">
       <t>ソウサ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>WASDで上下左右へ移動させる。</t>
@@ -203,7 +209,7 @@
     <rPh sb="10" eb="12">
       <t>イドウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>速度は変えられるかどうか要検討。</t>
@@ -216,7 +222,7 @@
     <rPh sb="12" eb="15">
       <t>ヨウケントウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ギミックの操作（基本）</t>
@@ -226,7 +232,7 @@
     <rPh sb="8" eb="10">
       <t>キホン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>１、画面内のギミックをクリックして、押しっぱなしすると、ゲームが一時停止する。</t>
@@ -242,7 +248,7 @@
     <rPh sb="32" eb="36">
       <t>イチジテイシ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>２、停止する間、ギミックの説明と使い方が表示して、読めるようになる。</t>
@@ -267,7 +273,7 @@
     <rPh sb="25" eb="26">
       <t>ヨ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>３、同時に、ギミックの上に半透明の円形が出る。</t>
@@ -286,15 +292,15 @@
     <rPh sb="20" eb="21">
       <t>デ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>　　</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>　　　</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>４、円形は何等分して、各部分に選択肢が出る。</t>
@@ -319,7 +325,7 @@
     <rPh sb="19" eb="20">
       <t>デ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>５、押したままドラッグすると、円の中心からマオスの位置まで線を引く。</t>
@@ -341,7 +347,7 @@
     <rPh sb="31" eb="32">
       <t>ヒ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>選択している「選択肢」の扇形の色が変わる。（色要検討（UIの担当者に相談））</t>
@@ -372,7 +378,7 @@
     <rPh sb="34" eb="36">
       <t>ソウダン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>手を放すと、一時停止が解いてドラッグした方向（線の方向）の選択肢を選択する。</t>
@@ -382,7 +388,7 @@
     <rPh sb="25" eb="27">
       <t>ホウコウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>選択不可の選択肢</t>
@@ -395,11 +401,11 @@
     <rPh sb="5" eb="8">
       <t>センタクシ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>プレイヤーがギミックと一定距離内にいる限り、選択できる選択肢がある。</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>一定距離外にいると、選択肢は選択不可になる。「近づく必要がある」という文字が選択肢の円形の下に表示する。</t>
@@ -439,7 +445,7 @@
     <rPh sb="47" eb="49">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>選択不可の選択肢は灰色半透明（仮）になる。</t>
@@ -452,7 +458,7 @@
     <rPh sb="5" eb="8">
       <t>センタクシ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>選択できない選択肢の方向へドラッグしても色が変わらない、手を放しても何も発生しない。</t>
@@ -483,7 +489,7 @@
     <rPh sb="36" eb="38">
       <t>ハッセイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>発動後のギミック操作（方向選択）</t>
@@ -502,82 +508,7 @@
     <rPh sb="13" eb="15">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>一部のギミックには、起動を選択した後、方向選択が必要となる。</t>
-    <rPh sb="0" eb="2">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>クリックで、方向選択をする。（ギミックのページに参照、下にリンクがある）</t>
-    <rPh sb="6" eb="8">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>シタ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>方向選択入力待ち中、ゲームが停止しないが、入力しない限り、他のギミックにクリックとプレイヤー移動ができない。</t>
-    <rPh sb="0" eb="2">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>カギ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>方向選択が必要なギミック</t>
@@ -590,34 +521,241 @@
     <rPh sb="5" eb="7">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>A2-聖杯</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>B-3花瓶</t>
   </si>
   <si>
     <t>B-4彫像</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>C-2馬</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>一部のギミックには、起動を選択した後、一時停止が解けて、方向選択入力待ち状態になる。</t>
+    <rPh sb="0" eb="2">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>方向選択入力待ち状態中、ゲームが停止しないが、入力しない限り、プレイヤー移動ができない、他のギミックにクリックできない。</t>
+    <rPh sb="0" eb="2">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>マップのどこかにクリックで、方向選択をする。（ギミックのページに参照、下にリンクがある）</t>
+    <rPh sb="14" eb="16">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>方向選択をしたら、方向選択入力待ち状態が解ける。</t>
+    <rPh sb="0" eb="2">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ト</t>
+    </rPh>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>C-2馬</t>
+    <t>0、マオスがギミックの近くにいると、ハイライト表示のエフェクトが発生する。</t>
+    <rPh sb="11" eb="12">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ハッセイ</t>
+    </rPh>
     <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>「エフェクト」ページの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>項目１</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に参照。</t>
+    </r>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>「発動後のギミック操作（方向選択）」の説明変更/「ギミックの操作」に0（ハイライトエフェクト相関）を追加</t>
+    <rPh sb="1" eb="3">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ソウカン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -713,6 +851,14 @@
       <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -847,114 +993,120 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="アクセント 2" xfId="3" builtinId="33"/>
     <cellStyle name="アクセント 3" xfId="4" builtinId="37"/>
-    <cellStyle name="どちらでもない 2" xfId="6"/>
+    <cellStyle name="どちらでもない 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="ハイパーリンク" xfId="7" builtinId="8"/>
     <cellStyle name="悪い" xfId="2" builtinId="27"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="5"/>
+    <cellStyle name="標準 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="良い" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1130,8 +1282,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6021705" y="760094"/>
-          <a:ext cx="3232785" cy="1927860"/>
+          <a:off x="5974080" y="731519"/>
+          <a:ext cx="3208020" cy="1851660"/>
           <a:chOff x="6682740" y="3032759"/>
           <a:chExt cx="3208020" cy="1851660"/>
         </a:xfrm>
@@ -1500,8 +1652,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9839325" y="782954"/>
-          <a:ext cx="3232785" cy="1927860"/>
+          <a:off x="9761220" y="754379"/>
+          <a:ext cx="3208020" cy="1851660"/>
           <a:chOff x="10454640" y="609599"/>
           <a:chExt cx="3208020" cy="1851660"/>
         </a:xfrm>
@@ -1942,8 +2094,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6320789" y="4592954"/>
-          <a:ext cx="266742" cy="537210"/>
+          <a:off x="6271259" y="4411979"/>
+          <a:ext cx="264837" cy="518160"/>
           <a:chOff x="9895133" y="316678"/>
           <a:chExt cx="175260" cy="342900"/>
         </a:xfrm>
@@ -3125,8 +3277,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10069829" y="4608194"/>
-          <a:ext cx="266742" cy="537210"/>
+          <a:off x="9989819" y="4427219"/>
+          <a:ext cx="264837" cy="518160"/>
           <a:chOff x="9895133" y="316678"/>
           <a:chExt cx="175260" cy="342900"/>
         </a:xfrm>
@@ -3989,37 +4141,885 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BQ13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:AZ10"/>
+      <selection activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="5" width="3.125" style="4"/>
-    <col min="6" max="6" width="16.375" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="3.125" style="4"/>
+    <col min="1" max="5" width="3.09765625" style="2"/>
+    <col min="6" max="6" width="16.3984375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="3.09765625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BO1" s="1"/>
+      <c r="BP1" s="1"/>
+      <c r="BQ1" s="1"/>
+    </row>
+    <row r="2" spans="1:69" x14ac:dyDescent="0.45">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BQ2" s="1"/>
+    </row>
+    <row r="3" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="9"/>
+      <c r="BA4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="9"/>
+    </row>
+    <row r="5" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="10">
+        <v>43603</v>
+      </c>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="9"/>
+    </row>
+    <row r="6" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="9"/>
+      <c r="BA6" s="10">
+        <v>43597</v>
+      </c>
+      <c r="BB6" s="8"/>
+      <c r="BC6" s="8"/>
+      <c r="BD6" s="8"/>
+      <c r="BE6" s="8"/>
+      <c r="BF6" s="8"/>
+      <c r="BG6" s="9"/>
+    </row>
+    <row r="7" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="8"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="9"/>
+      <c r="BA7" s="10">
+        <v>43597</v>
+      </c>
+      <c r="BB7" s="8"/>
+      <c r="BC7" s="8"/>
+      <c r="BD7" s="8"/>
+      <c r="BE7" s="8"/>
+      <c r="BF7" s="8"/>
+      <c r="BG7" s="9"/>
+    </row>
+    <row r="8" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="8"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="8"/>
+      <c r="AZ8" s="9"/>
+      <c r="BA8" s="10">
+        <v>43595</v>
+      </c>
+      <c r="BB8" s="8"/>
+      <c r="BC8" s="8"/>
+      <c r="BD8" s="8"/>
+      <c r="BE8" s="8"/>
+      <c r="BF8" s="8"/>
+      <c r="BG8" s="9"/>
+    </row>
+    <row r="9" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="8"/>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="8"/>
+      <c r="AY9" s="8"/>
+      <c r="AZ9" s="9"/>
+      <c r="BA9" s="10">
+        <v>43595</v>
+      </c>
+      <c r="BB9" s="8"/>
+      <c r="BC9" s="8"/>
+      <c r="BD9" s="8"/>
+      <c r="BE9" s="8"/>
+      <c r="BF9" s="8"/>
+      <c r="BG9" s="9"/>
+    </row>
+    <row r="10" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="8"/>
+      <c r="AV10" s="8"/>
+      <c r="AW10" s="8"/>
+      <c r="AX10" s="8"/>
+      <c r="AY10" s="8"/>
+      <c r="AZ10" s="9"/>
+      <c r="BA10" s="10">
+        <v>43593</v>
+      </c>
+      <c r="BB10" s="8"/>
+      <c r="BC10" s="8"/>
+      <c r="BD10" s="8"/>
+      <c r="BE10" s="8"/>
+      <c r="BF10" s="8"/>
+      <c r="BG10" s="9"/>
+    </row>
+    <row r="11" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="8"/>
+      <c r="AT11" s="8"/>
+      <c r="AU11" s="8"/>
+      <c r="AV11" s="8"/>
+      <c r="AW11" s="8"/>
+      <c r="AX11" s="8"/>
+      <c r="AY11" s="8"/>
+      <c r="AZ11" s="9"/>
+      <c r="BA11" s="10">
+        <v>43586</v>
+      </c>
+      <c r="BB11" s="8"/>
+      <c r="BC11" s="8"/>
+      <c r="BD11" s="8"/>
+      <c r="BE11" s="8"/>
+      <c r="BF11" s="8"/>
+      <c r="BG11" s="9"/>
+    </row>
+    <row r="12" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="8"/>
+      <c r="AV12" s="8"/>
+      <c r="AW12" s="8"/>
+      <c r="AX12" s="8"/>
+      <c r="AY12" s="8"/>
+      <c r="AZ12" s="9"/>
+      <c r="BA12" s="10">
+        <v>43586</v>
+      </c>
+      <c r="BB12" s="8"/>
+      <c r="BC12" s="8"/>
+      <c r="BD12" s="8"/>
+      <c r="BE12" s="8"/>
+      <c r="BF12" s="8"/>
+      <c r="BG12" s="9"/>
+    </row>
+    <row r="13" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8"/>
+      <c r="AO13" s="8"/>
+      <c r="AP13" s="8"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="8"/>
+      <c r="AT13" s="8"/>
+      <c r="AU13" s="8"/>
+      <c r="AV13" s="8"/>
+      <c r="AW13" s="8"/>
+      <c r="AX13" s="8"/>
+      <c r="AY13" s="8"/>
+      <c r="AZ13" s="9"/>
+      <c r="BA13" s="10">
+        <v>43584</v>
+      </c>
+      <c r="BB13" s="8"/>
+      <c r="BC13" s="8"/>
+      <c r="BD13" s="8"/>
+      <c r="BE13" s="8"/>
+      <c r="BF13" s="8"/>
+      <c r="BG13" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:AZ6"/>
+    <mergeCell ref="BA6:BG6"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:AZ5"/>
+    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:AZ7"/>
+    <mergeCell ref="BA7:BG7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AZ8"/>
+    <mergeCell ref="BA8:BG8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:AZ9"/>
+    <mergeCell ref="BA9:BG9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:AZ10"/>
+    <mergeCell ref="BA10:BG10"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:AZ13"/>
+    <mergeCell ref="BA13:BG13"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:AZ11"/>
+    <mergeCell ref="BA11:BG11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:AZ12"/>
+    <mergeCell ref="BA12:BG12"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:BN45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="3.09765625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -4072,25 +5072,22 @@
       <c r="BL1" s="3"/>
       <c r="BM1" s="3"/>
       <c r="BN1" s="3"/>
-      <c r="BO1" s="3"/>
-      <c r="BP1" s="3"/>
-      <c r="BQ1" s="3"/>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+    <row r="2" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -4143,1018 +5140,228 @@
       <c r="BL2" s="3"/>
       <c r="BM2" s="3"/>
       <c r="BN2" s="3"/>
-      <c r="BO2" s="3"/>
-      <c r="BP2" s="3"/>
-      <c r="BQ2" s="3"/>
     </row>
-    <row r="3" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="6"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
-      <c r="AO4" s="6"/>
-      <c r="AP4" s="6"/>
-      <c r="AQ4" s="6"/>
-      <c r="AR4" s="6"/>
-      <c r="AS4" s="6"/>
-      <c r="AT4" s="6"/>
-      <c r="AU4" s="6"/>
-      <c r="AV4" s="6"/>
-      <c r="AW4" s="6"/>
-      <c r="AX4" s="6"/>
-      <c r="AY4" s="6"/>
-      <c r="AZ4" s="7"/>
-      <c r="BA4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB4" s="6"/>
-      <c r="BC4" s="6"/>
-      <c r="BD4" s="6"/>
-      <c r="BE4" s="6"/>
-      <c r="BF4" s="6"/>
-      <c r="BG4" s="7"/>
+    <row r="4" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
     </row>
-    <row r="5" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="6"/>
-      <c r="AL5" s="6"/>
-      <c r="AM5" s="6"/>
-      <c r="AN5" s="6"/>
-      <c r="AO5" s="6"/>
-      <c r="AP5" s="6"/>
-      <c r="AQ5" s="6"/>
-      <c r="AR5" s="6"/>
-      <c r="AS5" s="6"/>
-      <c r="AT5" s="6"/>
-      <c r="AU5" s="6"/>
-      <c r="AV5" s="6"/>
-      <c r="AW5" s="6"/>
-      <c r="AX5" s="6"/>
-      <c r="AY5" s="6"/>
-      <c r="AZ5" s="7"/>
-      <c r="BA5" s="8">
-        <v>43597</v>
-      </c>
-      <c r="BB5" s="6"/>
-      <c r="BC5" s="6"/>
-      <c r="BD5" s="6"/>
-      <c r="BE5" s="6"/>
-      <c r="BF5" s="6"/>
-      <c r="BG5" s="7"/>
+    <row r="6" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="6"/>
-      <c r="AK6" s="6"/>
-      <c r="AL6" s="6"/>
-      <c r="AM6" s="6"/>
-      <c r="AN6" s="6"/>
-      <c r="AO6" s="6"/>
-      <c r="AP6" s="6"/>
-      <c r="AQ6" s="6"/>
-      <c r="AR6" s="6"/>
-      <c r="AS6" s="6"/>
-      <c r="AT6" s="6"/>
-      <c r="AU6" s="6"/>
-      <c r="AV6" s="6"/>
-      <c r="AW6" s="6"/>
-      <c r="AX6" s="6"/>
-      <c r="AY6" s="6"/>
-      <c r="AZ6" s="7"/>
-      <c r="BA6" s="8">
-        <v>43597</v>
-      </c>
-      <c r="BB6" s="6"/>
-      <c r="BC6" s="6"/>
-      <c r="BD6" s="6"/>
-      <c r="BE6" s="6"/>
-      <c r="BF6" s="6"/>
-      <c r="BG6" s="7"/>
+    <row r="7" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
-      <c r="AV7" s="6"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="7"/>
-      <c r="BA7" s="8">
-        <v>43595</v>
-      </c>
-      <c r="BB7" s="6"/>
-      <c r="BC7" s="6"/>
-      <c r="BD7" s="6"/>
-      <c r="BE7" s="6"/>
-      <c r="BF7" s="6"/>
-      <c r="BG7" s="7"/>
+    <row r="10" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
     </row>
-    <row r="8" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="6"/>
-      <c r="AV8" s="6"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="7"/>
-      <c r="BA8" s="8">
-        <v>43595</v>
-      </c>
-      <c r="BB8" s="6"/>
-      <c r="BC8" s="6"/>
-      <c r="BD8" s="6"/>
-      <c r="BE8" s="6"/>
-      <c r="BF8" s="6"/>
-      <c r="BG8" s="7"/>
+    <row r="12" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="C12" s="26" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="9" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
-      <c r="AH9" s="6"/>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="6"/>
-      <c r="AK9" s="6"/>
-      <c r="AL9" s="6"/>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="6"/>
-      <c r="AO9" s="6"/>
-      <c r="AP9" s="6"/>
-      <c r="AQ9" s="6"/>
-      <c r="AR9" s="6"/>
-      <c r="AS9" s="6"/>
-      <c r="AT9" s="6"/>
-      <c r="AU9" s="6"/>
-      <c r="AV9" s="6"/>
-      <c r="AW9" s="6"/>
-      <c r="AX9" s="6"/>
-      <c r="AY9" s="6"/>
-      <c r="AZ9" s="7"/>
-      <c r="BA9" s="8">
-        <v>43593</v>
-      </c>
-      <c r="BB9" s="6"/>
-      <c r="BC9" s="6"/>
-      <c r="BD9" s="6"/>
-      <c r="BE9" s="6"/>
-      <c r="BF9" s="6"/>
-      <c r="BG9" s="7"/>
+    <row r="13" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="C13" s="26" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="10" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="6"/>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="6"/>
-      <c r="AK10" s="6"/>
-      <c r="AL10" s="6"/>
-      <c r="AM10" s="6"/>
-      <c r="AN10" s="6"/>
-      <c r="AO10" s="6"/>
-      <c r="AP10" s="6"/>
-      <c r="AQ10" s="6"/>
-      <c r="AR10" s="6"/>
-      <c r="AS10" s="6"/>
-      <c r="AT10" s="6"/>
-      <c r="AU10" s="6"/>
-      <c r="AV10" s="6"/>
-      <c r="AW10" s="6"/>
-      <c r="AX10" s="6"/>
-      <c r="AY10" s="6"/>
-      <c r="AZ10" s="7"/>
-      <c r="BA10" s="8">
-        <v>43586</v>
-      </c>
-      <c r="BB10" s="6"/>
-      <c r="BC10" s="6"/>
-      <c r="BD10" s="6"/>
-      <c r="BE10" s="6"/>
-      <c r="BF10" s="6"/>
-      <c r="BG10" s="7"/>
+    <row r="15" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="11" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="6"/>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="6"/>
-      <c r="AK11" s="6"/>
-      <c r="AL11" s="6"/>
-      <c r="AM11" s="6"/>
-      <c r="AN11" s="6"/>
-      <c r="AO11" s="6"/>
-      <c r="AP11" s="6"/>
-      <c r="AQ11" s="6"/>
-      <c r="AR11" s="6"/>
-      <c r="AS11" s="6"/>
-      <c r="AT11" s="6"/>
-      <c r="AU11" s="6"/>
-      <c r="AV11" s="6"/>
-      <c r="AW11" s="6"/>
-      <c r="AX11" s="6"/>
-      <c r="AY11" s="6"/>
-      <c r="AZ11" s="7"/>
-      <c r="BA11" s="8">
-        <v>43586</v>
-      </c>
-      <c r="BB11" s="6"/>
-      <c r="BC11" s="6"/>
-      <c r="BD11" s="6"/>
-      <c r="BE11" s="6"/>
-      <c r="BF11" s="6"/>
-      <c r="BG11" s="7"/>
+    <row r="17" spans="3:41" x14ac:dyDescent="0.45">
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO17" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="12" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6"/>
-      <c r="AK12" s="6"/>
-      <c r="AL12" s="6"/>
-      <c r="AM12" s="6"/>
-      <c r="AN12" s="6"/>
-      <c r="AO12" s="6"/>
-      <c r="AP12" s="6"/>
-      <c r="AQ12" s="6"/>
-      <c r="AR12" s="6"/>
-      <c r="AS12" s="6"/>
-      <c r="AT12" s="6"/>
-      <c r="AU12" s="6"/>
-      <c r="AV12" s="6"/>
-      <c r="AW12" s="6"/>
-      <c r="AX12" s="6"/>
-      <c r="AY12" s="6"/>
-      <c r="AZ12" s="7"/>
-      <c r="BA12" s="8">
-        <v>43584</v>
-      </c>
-      <c r="BB12" s="6"/>
-      <c r="BC12" s="6"/>
-      <c r="BD12" s="6"/>
-      <c r="BE12" s="6"/>
-      <c r="BF12" s="6"/>
-      <c r="BG12" s="7"/>
+    <row r="19" spans="3:41" x14ac:dyDescent="0.45">
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:AZ12"/>
-    <mergeCell ref="BA12:BG12"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:AZ10"/>
-    <mergeCell ref="BA10:BG10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:AZ11"/>
-    <mergeCell ref="BA11:BG11"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AZ8"/>
-    <mergeCell ref="BA8:BG8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:AZ9"/>
-    <mergeCell ref="BA9:BG9"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:AZ6"/>
-    <mergeCell ref="BA6:BG6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:AZ7"/>
-    <mergeCell ref="BA7:BG7"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:AZ5"/>
-    <mergeCell ref="BA5:BG5"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BN43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="16384" width="3.125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="10"/>
-      <c r="BA1" s="10"/>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="10"/>
-      <c r="BD1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="10"/>
-      <c r="BG1" s="10"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="10"/>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="10"/>
-      <c r="BN1" s="10"/>
+    <row r="21" spans="3:41" x14ac:dyDescent="0.45">
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10"/>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="10"/>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="10"/>
-      <c r="AW2" s="10"/>
-      <c r="AX2" s="10"/>
-      <c r="AY2" s="10"/>
-      <c r="AZ2" s="10"/>
-      <c r="BA2" s="10"/>
-      <c r="BB2" s="10"/>
-      <c r="BC2" s="10"/>
-      <c r="BD2" s="10"/>
-      <c r="BE2" s="10"/>
-      <c r="BF2" s="10"/>
-      <c r="BG2" s="10"/>
-      <c r="BH2" s="10"/>
-      <c r="BI2" s="10"/>
-      <c r="BJ2" s="10"/>
-      <c r="BK2" s="10"/>
-      <c r="BL2" s="10"/>
-      <c r="BM2" s="10"/>
-      <c r="BN2" s="10"/>
+    <row r="23" spans="3:41" x14ac:dyDescent="0.45">
+      <c r="C23" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="C4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
+    <row r="24" spans="3:41" x14ac:dyDescent="0.45">
+      <c r="C24" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="C6" s="4" t="s">
-        <v>18</v>
+    <row r="25" spans="3:41" x14ac:dyDescent="0.45">
+      <c r="C25" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
+    <row r="27" spans="3:41" x14ac:dyDescent="0.45">
+      <c r="E27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="C10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
+    <row r="29" spans="3:41" x14ac:dyDescent="0.45">
+      <c r="E29" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="C12" s="4" t="s">
-        <v>21</v>
+    <row r="30" spans="3:41" x14ac:dyDescent="0.45">
+      <c r="E30" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="C14" s="4" t="s">
-        <v>22</v>
+    <row r="31" spans="3:41" x14ac:dyDescent="0.45">
+      <c r="E31" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="C16" s="4" t="s">
-        <v>23</v>
+    <row r="32" spans="3:41" x14ac:dyDescent="0.45">
+      <c r="E32" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="17" spans="3:41" x14ac:dyDescent="0.4">
-      <c r="AG17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO17" s="4" t="s">
-        <v>25</v>
-      </c>
+    <row r="34" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
     </row>
-    <row r="18" spans="3:41" x14ac:dyDescent="0.4">
-      <c r="C18" s="4" t="s">
-        <v>26</v>
+    <row r="36" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C36" s="26" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="19" spans="3:41" x14ac:dyDescent="0.4">
-      <c r="M19" s="4" t="s">
-        <v>24</v>
+    <row r="37" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C37" s="26" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="20" spans="3:41" x14ac:dyDescent="0.4">
-      <c r="C20" s="4" t="s">
-        <v>27</v>
+    <row r="38" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C38" s="26" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="21" spans="3:41" x14ac:dyDescent="0.4">
-      <c r="C21" s="4" t="s">
-        <v>28</v>
+    <row r="39" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C39" s="26" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="22" spans="3:41" x14ac:dyDescent="0.4">
-      <c r="C22" s="4" t="s">
-        <v>29</v>
-      </c>
+    <row r="40" spans="3:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="41" spans="3:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C41" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
     </row>
-    <row r="26" spans="3:41" x14ac:dyDescent="0.4">
-      <c r="E26" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-    </row>
-    <row r="28" spans="3:41" x14ac:dyDescent="0.4">
-      <c r="E28" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="3:41" x14ac:dyDescent="0.4">
-      <c r="E29" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="3:41" x14ac:dyDescent="0.4">
-      <c r="E30" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="3:41" x14ac:dyDescent="0.4">
-      <c r="E31" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="3:24" x14ac:dyDescent="0.4">
-      <c r="C33" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-    </row>
-    <row r="35" spans="3:24" x14ac:dyDescent="0.4">
-      <c r="C35" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="3:24" x14ac:dyDescent="0.4">
-      <c r="C36" s="4" t="s">
+    <row r="42" spans="3:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C42" s="17" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="3:24" x14ac:dyDescent="0.4">
-      <c r="C37" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="3:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="39" spans="3:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C39" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-    </row>
-    <row r="40" spans="3:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C40" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="19"/>
-    </row>
-    <row r="41" spans="3:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C41" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="22"/>
-    </row>
-    <row r="42" spans="3:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C42" s="17" t="s">
-        <v>42</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
@@ -5164,33 +5371,57 @@
       <c r="I42" s="18"/>
       <c r="J42" s="19"/>
     </row>
-    <row r="43" spans="3:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C43" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="25"/>
+    <row r="43" spans="3:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C43" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="22"/>
+    </row>
+    <row r="44" spans="3:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C44" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="19"/>
+    </row>
+    <row r="45" spans="3:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C45" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C45:J45"/>
     <mergeCell ref="A1:N2"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
     <mergeCell ref="C41:J41"/>
     <mergeCell ref="C42:J42"/>
     <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
   </mergeCells>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="7"/>
   <hyperlinks>
-    <hyperlink ref="C43:J43" location="ギミック!AJ178" display="C-2馬"/>
-    <hyperlink ref="C42:J42" location="操作仕様!AJ114" display="B-4彫像"/>
-    <hyperlink ref="C41:J41" location="ギミック!AJ97" display="B-3花瓶"/>
-    <hyperlink ref="C40:J40" location="ギミック!BA44" display="A2-聖杯"/>
+    <hyperlink ref="C45:J45" location="ギミック!AJ178" display="C-2馬" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C44:J44" location="操作仕様!AJ114" display="B-4彫像" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C43:J43" location="ギミック!AJ97" display="B-3花瓶" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C42:J42" location="ギミック!BA44" display="A2-聖杯" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/仕様書/分割/分割-操作仕様.xlsx
+++ b/仕様書/分割/分割-操作仕様.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C1A393-92AE-41AE-BFEC-F36BC3A97D20}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73551EB7-8945-4CA8-B28F-E254E8EDF480}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -35,18 +35,18 @@
     <rPh sb="2" eb="4">
       <t>リレキ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ページ</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>日付</t>
@@ -56,11 +56,11 @@
     <rPh sb="1" eb="2">
       <t>ツ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>モーションリスト</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>モーションリストの追加と統合</t>
@@ -70,14 +70,14 @@
     <rPh sb="12" eb="14">
       <t>トウゴウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>目録</t>
     <rPh sb="0" eb="2">
       <t>モクロク</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>目録の追加</t>
@@ -87,11 +87,11 @@
     <rPh sb="3" eb="5">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ギミック</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>特殊ギミック以外のギミックを具体的な説明を修正</t>
@@ -104,14 +104,14 @@
     <rPh sb="21" eb="23">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>操作仕様</t>
     <rPh sb="0" eb="4">
       <t>ソウサシヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>「ギミックの操作（方向選ぶタイプ）」を消して、「発動後のギミック操作（方向選択）」に変更した。ギミックの操作の5とP.S.を修正した</t>
@@ -136,7 +136,7 @@
     <rPh sb="62" eb="64">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>特殊ギミック以外のギミックを具体的な説明を更新した</t>
@@ -149,7 +149,7 @@
     <rPh sb="21" eb="23">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>操作仕様を記入した</t>
@@ -159,7 +159,7 @@
     <rPh sb="5" eb="7">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>特殊ギミック以外のギミックをざっと記入した</t>
@@ -172,14 +172,14 @@
     <rPh sb="17" eb="19">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ギミックをざっと分類する</t>
     <rPh sb="8" eb="10">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>３、操作仕様</t>
@@ -189,14 +189,14 @@
     <rPh sb="4" eb="6">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>プレイヤーの操作</t>
     <rPh sb="6" eb="8">
       <t>ソウサ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>WASDで上下左右へ移動させる。</t>
@@ -209,7 +209,7 @@
     <rPh sb="10" eb="12">
       <t>イドウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>速度は変えられるかどうか要検討。</t>
@@ -222,7 +222,7 @@
     <rPh sb="12" eb="15">
       <t>ヨウケントウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ギミックの操作（基本）</t>
@@ -232,7 +232,7 @@
     <rPh sb="8" eb="10">
       <t>キホン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>１、画面内のギミックをクリックして、押しっぱなしすると、ゲームが一時停止する。</t>
@@ -248,7 +248,7 @@
     <rPh sb="32" eb="36">
       <t>イチジテイシ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>２、停止する間、ギミックの説明と使い方が表示して、読めるようになる。</t>
@@ -273,7 +273,7 @@
     <rPh sb="25" eb="26">
       <t>ヨ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>３、同時に、ギミックの上に半透明の円形が出る。</t>
@@ -292,15 +292,15 @@
     <rPh sb="20" eb="21">
       <t>デ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>　　</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>　　　</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>４、円形は何等分して、各部分に選択肢が出る。</t>
@@ -325,29 +325,7 @@
     <rPh sb="19" eb="20">
       <t>デ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>５、押したままドラッグすると、円の中心からマオスの位置まで線を引く。</t>
-    <rPh sb="2" eb="3">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>チュウシン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>セン</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>選択している「選択肢」の扇形の色が変わる。（色要検討（UIの担当者に相談））</t>
@@ -378,7 +356,7 @@
     <rPh sb="34" eb="36">
       <t>ソウダン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>手を放すと、一時停止が解いてドラッグした方向（線の方向）の選択肢を選択する。</t>
@@ -388,7 +366,7 @@
     <rPh sb="25" eb="27">
       <t>ホウコウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>選択不可の選択肢</t>
@@ -401,11 +379,11 @@
     <rPh sb="5" eb="8">
       <t>センタクシ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>プレイヤーがギミックと一定距離内にいる限り、選択できる選択肢がある。</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>一定距離外にいると、選択肢は選択不可になる。「近づく必要がある」という文字が選択肢の円形の下に表示する。</t>
@@ -445,7 +423,7 @@
     <rPh sb="47" eb="49">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>選択不可の選択肢は灰色半透明（仮）になる。</t>
@@ -458,7 +436,7 @@
     <rPh sb="5" eb="8">
       <t>センタクシ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>選択できない選択肢の方向へドラッグしても色が変わらない、手を放しても何も発生しない。</t>
@@ -489,7 +467,7 @@
     <rPh sb="36" eb="38">
       <t>ハッセイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>発動後のギミック操作（方向選択）</t>
@@ -508,7 +486,7 @@
     <rPh sb="13" eb="15">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>方向選択が必要なギミック</t>
@@ -521,22 +499,22 @@
     <rPh sb="5" eb="7">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>A2-聖杯</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>B-3花瓶</t>
   </si>
   <si>
     <t>B-4彫像</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>C-2馬</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>一部のギミックには、起動を選択した後、一時停止が解けて、方向選択入力待ち状態になる。</t>
@@ -576,7 +554,7 @@
     <rPh sb="36" eb="38">
       <t>ジョウタイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>方向選択入力待ち状態中、ゲームが停止しないが、入力しない限り、プレイヤー移動ができない、他のギミックにクリックできない。</t>
@@ -610,7 +588,7 @@
     <rPh sb="44" eb="45">
       <t>ホカ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>マップのどこかにクリックで、方向選択をする。（ギミックのページに参照、下にリンクがある）</t>
@@ -626,7 +604,7 @@
     <rPh sb="35" eb="36">
       <t>シタ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>方向選択をしたら、方向選択入力待ち状態が解ける。</t>
@@ -654,20 +632,7 @@
     <rPh sb="20" eb="21">
       <t>ト</t>
     </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>0、マオスがギミックの近くにいると、ハイライト表示のエフェクトが発生する。</t>
-    <rPh sb="11" eb="12">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -701,7 +666,7 @@
     <rPh sb="15" eb="17">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>「発動後のギミック操作（方向選択）」の説明変更/「ギミックの操作」に0（ハイライトエフェクト相関）を追加</t>
@@ -735,19 +700,62 @@
     <rPh sb="50" eb="52">
       <t>ツイカ</t>
     </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>0、マウスがギミックの近くにいると、ハイライト表示のエフェクトが発生する。</t>
+    <rPh sb="11" eb="12">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ハッセイ</t>
+    </rPh>
     <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>５、押したままドラッグすると、円の中心からマウスの位置まで線を引く。</t>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -993,110 +1001,113 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -4144,7 +4155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
@@ -4156,20 +4167,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -4229,18 +4240,18 @@
       <c r="BQ1" s="1"/>
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -4301,657 +4312,678 @@
     </row>
     <row r="3" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="7" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="8"/>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="8"/>
-      <c r="AZ4" s="9"/>
-      <c r="BA4" s="7" t="s">
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="11"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11"/>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="11"/>
+      <c r="AZ4" s="12"/>
+      <c r="BA4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="BB4" s="8"/>
-      <c r="BC4" s="8"/>
-      <c r="BD4" s="8"/>
-      <c r="BE4" s="8"/>
-      <c r="BF4" s="8"/>
-      <c r="BG4" s="9"/>
+      <c r="BB4" s="11"/>
+      <c r="BC4" s="11"/>
+      <c r="BD4" s="11"/>
+      <c r="BE4" s="11"/>
+      <c r="BF4" s="11"/>
+      <c r="BG4" s="12"/>
     </row>
     <row r="5" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
-      <c r="AK5" s="8"/>
-      <c r="AL5" s="8"/>
-      <c r="AM5" s="8"/>
-      <c r="AN5" s="8"/>
-      <c r="AO5" s="8"/>
-      <c r="AP5" s="8"/>
-      <c r="AQ5" s="8"/>
-      <c r="AR5" s="8"/>
-      <c r="AS5" s="8"/>
-      <c r="AT5" s="8"/>
-      <c r="AU5" s="8"/>
-      <c r="AV5" s="8"/>
-      <c r="AW5" s="8"/>
-      <c r="AX5" s="8"/>
-      <c r="AY5" s="8"/>
-      <c r="AZ5" s="9"/>
-      <c r="BA5" s="10">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11"/>
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="11"/>
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="11"/>
+      <c r="AZ5" s="12"/>
+      <c r="BA5" s="13">
         <v>43603</v>
       </c>
-      <c r="BB5" s="8"/>
-      <c r="BC5" s="8"/>
-      <c r="BD5" s="8"/>
-      <c r="BE5" s="8"/>
-      <c r="BF5" s="8"/>
-      <c r="BG5" s="9"/>
+      <c r="BB5" s="11"/>
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="11"/>
+      <c r="BE5" s="11"/>
+      <c r="BF5" s="11"/>
+      <c r="BG5" s="12"/>
     </row>
     <row r="6" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="8"/>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="8"/>
-      <c r="AT6" s="8"/>
-      <c r="AU6" s="8"/>
-      <c r="AV6" s="8"/>
-      <c r="AW6" s="8"/>
-      <c r="AX6" s="8"/>
-      <c r="AY6" s="8"/>
-      <c r="AZ6" s="9"/>
-      <c r="BA6" s="10">
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="11"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="13">
         <v>43597</v>
       </c>
-      <c r="BB6" s="8"/>
-      <c r="BC6" s="8"/>
-      <c r="BD6" s="8"/>
-      <c r="BE6" s="8"/>
-      <c r="BF6" s="8"/>
-      <c r="BG6" s="9"/>
+      <c r="BB6" s="11"/>
+      <c r="BC6" s="11"/>
+      <c r="BD6" s="11"/>
+      <c r="BE6" s="11"/>
+      <c r="BF6" s="11"/>
+      <c r="BG6" s="12"/>
     </row>
     <row r="7" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="8"/>
-      <c r="AI7" s="8"/>
-      <c r="AJ7" s="8"/>
-      <c r="AK7" s="8"/>
-      <c r="AL7" s="8"/>
-      <c r="AM7" s="8"/>
-      <c r="AN7" s="8"/>
-      <c r="AO7" s="8"/>
-      <c r="AP7" s="8"/>
-      <c r="AQ7" s="8"/>
-      <c r="AR7" s="8"/>
-      <c r="AS7" s="8"/>
-      <c r="AT7" s="8"/>
-      <c r="AU7" s="8"/>
-      <c r="AV7" s="8"/>
-      <c r="AW7" s="8"/>
-      <c r="AX7" s="8"/>
-      <c r="AY7" s="8"/>
-      <c r="AZ7" s="9"/>
-      <c r="BA7" s="10">
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="11"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="11"/>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11"/>
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="11"/>
+      <c r="AY7" s="11"/>
+      <c r="AZ7" s="12"/>
+      <c r="BA7" s="13">
         <v>43597</v>
       </c>
-      <c r="BB7" s="8"/>
-      <c r="BC7" s="8"/>
-      <c r="BD7" s="8"/>
-      <c r="BE7" s="8"/>
-      <c r="BF7" s="8"/>
-      <c r="BG7" s="9"/>
+      <c r="BB7" s="11"/>
+      <c r="BC7" s="11"/>
+      <c r="BD7" s="11"/>
+      <c r="BE7" s="11"/>
+      <c r="BF7" s="11"/>
+      <c r="BG7" s="12"/>
     </row>
     <row r="8" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
-      <c r="AM8" s="8"/>
-      <c r="AN8" s="8"/>
-      <c r="AO8" s="8"/>
-      <c r="AP8" s="8"/>
-      <c r="AQ8" s="8"/>
-      <c r="AR8" s="8"/>
-      <c r="AS8" s="8"/>
-      <c r="AT8" s="8"/>
-      <c r="AU8" s="8"/>
-      <c r="AV8" s="8"/>
-      <c r="AW8" s="8"/>
-      <c r="AX8" s="8"/>
-      <c r="AY8" s="8"/>
-      <c r="AZ8" s="9"/>
-      <c r="BA8" s="10">
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="11"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="11"/>
+      <c r="AR8" s="11"/>
+      <c r="AS8" s="11"/>
+      <c r="AT8" s="11"/>
+      <c r="AU8" s="11"/>
+      <c r="AV8" s="11"/>
+      <c r="AW8" s="11"/>
+      <c r="AX8" s="11"/>
+      <c r="AY8" s="11"/>
+      <c r="AZ8" s="12"/>
+      <c r="BA8" s="13">
         <v>43595</v>
       </c>
-      <c r="BB8" s="8"/>
-      <c r="BC8" s="8"/>
-      <c r="BD8" s="8"/>
-      <c r="BE8" s="8"/>
-      <c r="BF8" s="8"/>
-      <c r="BG8" s="9"/>
+      <c r="BB8" s="11"/>
+      <c r="BC8" s="11"/>
+      <c r="BD8" s="11"/>
+      <c r="BE8" s="11"/>
+      <c r="BF8" s="11"/>
+      <c r="BG8" s="12"/>
     </row>
     <row r="9" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="7" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="8"/>
-      <c r="AL9" s="8"/>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="8"/>
-      <c r="AO9" s="8"/>
-      <c r="AP9" s="8"/>
-      <c r="AQ9" s="8"/>
-      <c r="AR9" s="8"/>
-      <c r="AS9" s="8"/>
-      <c r="AT9" s="8"/>
-      <c r="AU9" s="8"/>
-      <c r="AV9" s="8"/>
-      <c r="AW9" s="8"/>
-      <c r="AX9" s="8"/>
-      <c r="AY9" s="8"/>
-      <c r="AZ9" s="9"/>
-      <c r="BA9" s="10">
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="11"/>
+      <c r="AT9" s="11"/>
+      <c r="AU9" s="11"/>
+      <c r="AV9" s="11"/>
+      <c r="AW9" s="11"/>
+      <c r="AX9" s="11"/>
+      <c r="AY9" s="11"/>
+      <c r="AZ9" s="12"/>
+      <c r="BA9" s="13">
         <v>43595</v>
       </c>
-      <c r="BB9" s="8"/>
-      <c r="BC9" s="8"/>
-      <c r="BD9" s="8"/>
-      <c r="BE9" s="8"/>
-      <c r="BF9" s="8"/>
-      <c r="BG9" s="9"/>
+      <c r="BB9" s="11"/>
+      <c r="BC9" s="11"/>
+      <c r="BD9" s="11"/>
+      <c r="BE9" s="11"/>
+      <c r="BF9" s="11"/>
+      <c r="BG9" s="12"/>
     </row>
     <row r="10" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="7" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="8"/>
-      <c r="AJ10" s="8"/>
-      <c r="AK10" s="8"/>
-      <c r="AL10" s="8"/>
-      <c r="AM10" s="8"/>
-      <c r="AN10" s="8"/>
-      <c r="AO10" s="8"/>
-      <c r="AP10" s="8"/>
-      <c r="AQ10" s="8"/>
-      <c r="AR10" s="8"/>
-      <c r="AS10" s="8"/>
-      <c r="AT10" s="8"/>
-      <c r="AU10" s="8"/>
-      <c r="AV10" s="8"/>
-      <c r="AW10" s="8"/>
-      <c r="AX10" s="8"/>
-      <c r="AY10" s="8"/>
-      <c r="AZ10" s="9"/>
-      <c r="BA10" s="10">
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="11"/>
+      <c r="AT10" s="11"/>
+      <c r="AU10" s="11"/>
+      <c r="AV10" s="11"/>
+      <c r="AW10" s="11"/>
+      <c r="AX10" s="11"/>
+      <c r="AY10" s="11"/>
+      <c r="AZ10" s="12"/>
+      <c r="BA10" s="13">
         <v>43593</v>
       </c>
-      <c r="BB10" s="8"/>
-      <c r="BC10" s="8"/>
-      <c r="BD10" s="8"/>
-      <c r="BE10" s="8"/>
-      <c r="BF10" s="8"/>
-      <c r="BG10" s="9"/>
+      <c r="BB10" s="11"/>
+      <c r="BC10" s="11"/>
+      <c r="BD10" s="11"/>
+      <c r="BE10" s="11"/>
+      <c r="BF10" s="11"/>
+      <c r="BG10" s="12"/>
     </row>
     <row r="11" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="7" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="8"/>
-      <c r="AK11" s="8"/>
-      <c r="AL11" s="8"/>
-      <c r="AM11" s="8"/>
-      <c r="AN11" s="8"/>
-      <c r="AO11" s="8"/>
-      <c r="AP11" s="8"/>
-      <c r="AQ11" s="8"/>
-      <c r="AR11" s="8"/>
-      <c r="AS11" s="8"/>
-      <c r="AT11" s="8"/>
-      <c r="AU11" s="8"/>
-      <c r="AV11" s="8"/>
-      <c r="AW11" s="8"/>
-      <c r="AX11" s="8"/>
-      <c r="AY11" s="8"/>
-      <c r="AZ11" s="9"/>
-      <c r="BA11" s="10">
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="11"/>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="11"/>
+      <c r="AT11" s="11"/>
+      <c r="AU11" s="11"/>
+      <c r="AV11" s="11"/>
+      <c r="AW11" s="11"/>
+      <c r="AX11" s="11"/>
+      <c r="AY11" s="11"/>
+      <c r="AZ11" s="12"/>
+      <c r="BA11" s="13">
         <v>43586</v>
       </c>
-      <c r="BB11" s="8"/>
-      <c r="BC11" s="8"/>
-      <c r="BD11" s="8"/>
-      <c r="BE11" s="8"/>
-      <c r="BF11" s="8"/>
-      <c r="BG11" s="9"/>
+      <c r="BB11" s="11"/>
+      <c r="BC11" s="11"/>
+      <c r="BD11" s="11"/>
+      <c r="BE11" s="11"/>
+      <c r="BF11" s="11"/>
+      <c r="BG11" s="12"/>
     </row>
     <row r="12" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="7" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="8"/>
-      <c r="AI12" s="8"/>
-      <c r="AJ12" s="8"/>
-      <c r="AK12" s="8"/>
-      <c r="AL12" s="8"/>
-      <c r="AM12" s="8"/>
-      <c r="AN12" s="8"/>
-      <c r="AO12" s="8"/>
-      <c r="AP12" s="8"/>
-      <c r="AQ12" s="8"/>
-      <c r="AR12" s="8"/>
-      <c r="AS12" s="8"/>
-      <c r="AT12" s="8"/>
-      <c r="AU12" s="8"/>
-      <c r="AV12" s="8"/>
-      <c r="AW12" s="8"/>
-      <c r="AX12" s="8"/>
-      <c r="AY12" s="8"/>
-      <c r="AZ12" s="9"/>
-      <c r="BA12" s="10">
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="11"/>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="11"/>
+      <c r="AT12" s="11"/>
+      <c r="AU12" s="11"/>
+      <c r="AV12" s="11"/>
+      <c r="AW12" s="11"/>
+      <c r="AX12" s="11"/>
+      <c r="AY12" s="11"/>
+      <c r="AZ12" s="12"/>
+      <c r="BA12" s="13">
         <v>43586</v>
       </c>
-      <c r="BB12" s="8"/>
-      <c r="BC12" s="8"/>
-      <c r="BD12" s="8"/>
-      <c r="BE12" s="8"/>
-      <c r="BF12" s="8"/>
-      <c r="BG12" s="9"/>
+      <c r="BB12" s="11"/>
+      <c r="BC12" s="11"/>
+      <c r="BD12" s="11"/>
+      <c r="BE12" s="11"/>
+      <c r="BF12" s="11"/>
+      <c r="BG12" s="12"/>
     </row>
     <row r="13" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="8"/>
-      <c r="AH13" s="8"/>
-      <c r="AI13" s="8"/>
-      <c r="AJ13" s="8"/>
-      <c r="AK13" s="8"/>
-      <c r="AL13" s="8"/>
-      <c r="AM13" s="8"/>
-      <c r="AN13" s="8"/>
-      <c r="AO13" s="8"/>
-      <c r="AP13" s="8"/>
-      <c r="AQ13" s="8"/>
-      <c r="AR13" s="8"/>
-      <c r="AS13" s="8"/>
-      <c r="AT13" s="8"/>
-      <c r="AU13" s="8"/>
-      <c r="AV13" s="8"/>
-      <c r="AW13" s="8"/>
-      <c r="AX13" s="8"/>
-      <c r="AY13" s="8"/>
-      <c r="AZ13" s="9"/>
-      <c r="BA13" s="10">
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="11"/>
+      <c r="AR13" s="11"/>
+      <c r="AS13" s="11"/>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="11"/>
+      <c r="AV13" s="11"/>
+      <c r="AW13" s="11"/>
+      <c r="AX13" s="11"/>
+      <c r="AY13" s="11"/>
+      <c r="AZ13" s="12"/>
+      <c r="BA13" s="13">
         <v>43584</v>
       </c>
-      <c r="BB13" s="8"/>
-      <c r="BC13" s="8"/>
-      <c r="BD13" s="8"/>
-      <c r="BE13" s="8"/>
-      <c r="BF13" s="8"/>
-      <c r="BG13" s="9"/>
+      <c r="BB13" s="11"/>
+      <c r="BC13" s="11"/>
+      <c r="BD13" s="11"/>
+      <c r="BE13" s="11"/>
+      <c r="BF13" s="11"/>
+      <c r="BG13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:AZ13"/>
+    <mergeCell ref="BA13:BG13"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:AZ11"/>
+    <mergeCell ref="BA11:BG11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:AZ12"/>
+    <mergeCell ref="BA12:BG12"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:AZ9"/>
+    <mergeCell ref="BA9:BG9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:AZ10"/>
+    <mergeCell ref="BA10:BG10"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:AZ7"/>
+    <mergeCell ref="BA7:BG7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AZ8"/>
+    <mergeCell ref="BA8:BG8"/>
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="G4:AZ4"/>
@@ -4962,29 +4994,8 @@
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:AZ5"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:AZ7"/>
-    <mergeCell ref="BA7:BG7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AZ8"/>
-    <mergeCell ref="BA8:BG8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:AZ9"/>
-    <mergeCell ref="BA9:BG9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:AZ10"/>
-    <mergeCell ref="BA10:BG10"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:AZ13"/>
-    <mergeCell ref="BA13:BG13"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:AZ11"/>
-    <mergeCell ref="BA11:BG11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:AZ12"/>
-    <mergeCell ref="BA12:BG12"/>
   </mergeCells>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -4994,8 +5005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BN45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5004,22 +5015,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -5074,20 +5085,20 @@
       <c r="BN1" s="3"/>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.45">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -5204,13 +5215,13 @@
       <c r="X10" s="4"/>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.45">
-      <c r="C12" s="26" t="s">
-        <v>45</v>
+      <c r="C12" s="28" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.45">
-      <c r="C13" s="26" t="s">
-        <v>46</v>
+      <c r="C13" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.45">
@@ -5243,23 +5254,23 @@
       </c>
     </row>
     <row r="23" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C23" s="2" t="s">
-        <v>27</v>
+      <c r="C23" s="28" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="3:41" x14ac:dyDescent="0.45">
       <c r="C25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="3:41" x14ac:dyDescent="0.45">
       <c r="E27" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -5282,27 +5293,27 @@
     </row>
     <row r="29" spans="3:41" x14ac:dyDescent="0.45">
       <c r="E29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="3:41" x14ac:dyDescent="0.45">
       <c r="E30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="3:41" x14ac:dyDescent="0.45">
       <c r="E31" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="3:41" x14ac:dyDescent="0.45">
       <c r="E32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C34" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -5327,85 +5338,85 @@
       <c r="X34" s="4"/>
     </row>
     <row r="36" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C36" s="26" t="s">
-        <v>41</v>
+      <c r="C36" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C37" s="26" t="s">
-        <v>42</v>
+      <c r="C37" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C38" s="26" t="s">
-        <v>43</v>
+      <c r="C38" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C39" s="26" t="s">
-        <v>44</v>
+      <c r="C39" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="3:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="41" spans="3:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C41" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
+      <c r="C41" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="3:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C42" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="19"/>
+      <c r="C42" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="24"/>
     </row>
     <row r="43" spans="3:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C43" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="22"/>
+      <c r="C43" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="27"/>
     </row>
     <row r="44" spans="3:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C44" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="19"/>
+      <c r="C44" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="24"/>
     </row>
     <row r="45" spans="3:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C45" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="25"/>
+      <c r="C45" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5416,7 +5427,7 @@
     <mergeCell ref="C43:J43"/>
     <mergeCell ref="C44:J44"/>
   </mergeCells>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <hyperlinks>
     <hyperlink ref="C45:J45" location="ギミック!AJ178" display="C-2馬" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="C44:J44" location="操作仕様!AJ114" display="B-4彫像" xr:uid="{00000000-0004-0000-0100-000001000000}"/>

--- a/仕様書/分割/分割-操作仕様.xlsx
+++ b/仕様書/分割/分割-操作仕様.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73551EB7-8945-4CA8-B28F-E254E8EDF480}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9705" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
     <sheet name="操作仕様 " sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="2">
@@ -35,18 +34,18 @@
     <rPh sb="2" eb="4">
       <t>リレキ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ページ</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>日付</t>
@@ -56,11 +55,11 @@
     <rPh sb="1" eb="2">
       <t>ツ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>モーションリスト</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>モーションリストの追加と統合</t>
@@ -70,14 +69,14 @@
     <rPh sb="12" eb="14">
       <t>トウゴウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>目録</t>
     <rPh sb="0" eb="2">
       <t>モクロク</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>目録の追加</t>
@@ -87,11 +86,11 @@
     <rPh sb="3" eb="5">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ギミック</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>特殊ギミック以外のギミックを具体的な説明を修正</t>
@@ -104,14 +103,14 @@
     <rPh sb="21" eb="23">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>操作仕様</t>
     <rPh sb="0" eb="4">
       <t>ソウサシヨウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>「ギミックの操作（方向選ぶタイプ）」を消して、「発動後のギミック操作（方向選択）」に変更した。ギミックの操作の5とP.S.を修正した</t>
@@ -136,7 +135,7 @@
     <rPh sb="62" eb="64">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>特殊ギミック以外のギミックを具体的な説明を更新した</t>
@@ -149,7 +148,7 @@
     <rPh sb="21" eb="23">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>操作仕様を記入した</t>
@@ -159,7 +158,7 @@
     <rPh sb="5" eb="7">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>特殊ギミック以外のギミックをざっと記入した</t>
@@ -172,14 +171,14 @@
     <rPh sb="17" eb="19">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ギミックをざっと分類する</t>
     <rPh sb="8" eb="10">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>３、操作仕様</t>
@@ -189,14 +188,14 @@
     <rPh sb="4" eb="6">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>プレイヤーの操作</t>
     <rPh sb="6" eb="8">
       <t>ソウサ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>WASDで上下左右へ移動させる。</t>
@@ -209,7 +208,7 @@
     <rPh sb="10" eb="12">
       <t>イドウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>速度は変えられるかどうか要検討。</t>
@@ -222,17 +221,7 @@
     <rPh sb="12" eb="15">
       <t>ヨウケントウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>ギミックの操作（基本）</t>
-    <rPh sb="5" eb="7">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キホン</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>１、画面内のギミックをクリックして、押しっぱなしすると、ゲームが一時停止する。</t>
@@ -248,7 +237,7 @@
     <rPh sb="32" eb="36">
       <t>イチジテイシ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>２、停止する間、ギミックの説明と使い方が表示して、読めるようになる。</t>
@@ -273,7 +262,7 @@
     <rPh sb="25" eb="26">
       <t>ヨ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>３、同時に、ギミックの上に半透明の円形が出る。</t>
@@ -292,15 +281,15 @@
     <rPh sb="20" eb="21">
       <t>デ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>　　</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>　　　</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>４、円形は何等分して、各部分に選択肢が出る。</t>
@@ -325,7 +314,7 @@
     <rPh sb="19" eb="20">
       <t>デ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>選択している「選択肢」の扇形の色が変わる。（色要検討（UIの担当者に相談））</t>
@@ -356,7 +345,7 @@
     <rPh sb="34" eb="36">
       <t>ソウダン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>手を放すと、一時停止が解いてドラッグした方向（線の方向）の選択肢を選択する。</t>
@@ -366,7 +355,7 @@
     <rPh sb="25" eb="27">
       <t>ホウコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>選択不可の選択肢</t>
@@ -379,11 +368,11 @@
     <rPh sb="5" eb="8">
       <t>センタクシ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>プレイヤーがギミックと一定距離内にいる限り、選択できる選択肢がある。</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>一定距離外にいると、選択肢は選択不可になる。「近づく必要がある」という文字が選択肢の円形の下に表示する。</t>
@@ -423,7 +412,7 @@
     <rPh sb="47" eb="49">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>選択不可の選択肢は灰色半透明（仮）になる。</t>
@@ -436,7 +425,7 @@
     <rPh sb="5" eb="8">
       <t>センタクシ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>選択できない選択肢の方向へドラッグしても色が変わらない、手を放しても何も発生しない。</t>
@@ -467,7 +456,7 @@
     <rPh sb="36" eb="38">
       <t>ハッセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>発動後のギミック操作（方向選択）</t>
@@ -486,7 +475,7 @@
     <rPh sb="13" eb="15">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>方向選択が必要なギミック</t>
@@ -499,22 +488,22 @@
     <rPh sb="5" eb="7">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>A2-聖杯</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>B-3花瓶</t>
   </si>
   <si>
     <t>B-4彫像</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>C-2馬</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>一部のギミックには、起動を選択した後、一時停止が解けて、方向選択入力待ち状態になる。</t>
@@ -554,7 +543,7 @@
     <rPh sb="36" eb="38">
       <t>ジョウタイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>方向選択入力待ち状態中、ゲームが停止しないが、入力しない限り、プレイヤー移動ができない、他のギミックにクリックできない。</t>
@@ -588,7 +577,7 @@
     <rPh sb="44" eb="45">
       <t>ホカ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>マップのどこかにクリックで、方向選択をする。（ギミックのページに参照、下にリンクがある）</t>
@@ -604,7 +593,7 @@
     <rPh sb="35" eb="36">
       <t>シタ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>方向選択をしたら、方向選択入力待ち状態が解ける。</t>
@@ -632,7 +621,7 @@
     <rPh sb="20" eb="21">
       <t>ト</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -666,7 +655,7 @@
     <rPh sb="15" eb="17">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>「発動後のギミック操作（方向選択）」の説明変更/「ギミックの操作」に0（ハイライトエフェクト相関）を追加</t>
@@ -700,7 +689,7 @@
     <rPh sb="50" eb="52">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>0、マウスがギミックの近くにいると、ハイライト表示のエフェクトが発生する。</t>
@@ -713,7 +702,7 @@
     <rPh sb="32" eb="34">
       <t>ハッセイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>５、押したままドラッグすると、円の中心からマウスの位置まで線を引く。</t>
@@ -735,19 +724,235 @@
     <rPh sb="31" eb="32">
       <t>ヒ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>選択肢はギミックごとに違う。</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>操作仕様</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>操作仕様の４を更新した。</t>
+    <rPh sb="0" eb="4">
+      <t>ソウサシヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ギミックの操作（基本）(廃棄)</t>
+    <rPh sb="5" eb="7">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハイキ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>選択不可の選択肢（廃棄）</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハイキ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ギミックの操作（基本）バージョン２</t>
+    <rPh sb="5" eb="7">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>１、画面内のギミックをクリックして、ゲームが一時停止する。</t>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>イチジテイシ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ギミックが拡大して、選択肢が真ん中に表示する。（レイアウトが「UI」のページに参照）</t>
+    <rPh sb="5" eb="7">
+      <t>カクダイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>４、選択肢が何等分された円に配置する。</t>
+    <rPh sb="2" eb="5">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ナントウブン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ただし、一部の選択肢には特定の条件を満たさない限り選択できない。</t>
+  </si>
+  <si>
+    <t>５、マウスが「選択肢」の上に行くと、その「選択肢」の扇形の色が変わる。</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>選択肢をクリックすると、一時停止が解いてその選択肢の効果が発動する。</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>条件を満たさないと、選択肢は選択不可になる。「近づく必要がある」という文字が選択肢の円形の下に表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>モンジ</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>エンケイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>選択肢はギミックごとに違う。「ギミック」ページに参照。</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>「ギミック操作（基本）」を廃棄して、「ギミック操作（基本）バージョン２」を追加した</t>
+    <rPh sb="5" eb="7">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハイキ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1001,123 +1206,141 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="アクセント 2" xfId="3" builtinId="33"/>
     <cellStyle name="アクセント 3" xfId="4" builtinId="37"/>
-    <cellStyle name="どちらでもない 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="どちらでもない 2" xfId="6"/>
     <cellStyle name="ハイパーリンク" xfId="7" builtinId="8"/>
     <cellStyle name="悪い" xfId="2" builtinId="27"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準 2" xfId="5"/>
     <cellStyle name="良い" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1137,15 +1360,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>228599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>22859</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1200,15 +1423,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>144779</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>213359</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1269,767 +1492,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>45719</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>68579</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="グループ化 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DF6CF58-E5EC-4A48-9679-B1D4AADA55C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5974080" y="731519"/>
-          <a:ext cx="3208020" cy="1851660"/>
-          <a:chOff x="6682740" y="3032759"/>
-          <a:chExt cx="3208020" cy="1851660"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="正方形/長方形 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E41EB7-DAD6-4DA6-995C-BDE0AEA6EE15}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6682740" y="3032759"/>
-            <a:ext cx="3208020" cy="1851660"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="6" name="グループ化 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F51B83F7-EA20-472F-946D-75B11873066B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="6964679" y="3992879"/>
-            <a:ext cx="264837" cy="518160"/>
-            <a:chOff x="7399020" y="1920240"/>
-            <a:chExt cx="175260" cy="342900"/>
-          </a:xfrm>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="二等辺三角形 9">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C806848-C301-49FA-ADA1-852D0E1C6FCF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7406640" y="2019300"/>
-              <a:ext cx="167640" cy="243840"/>
-            </a:xfrm>
-            <a:prstGeom prst="triangle">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:grpFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="楕円 10">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6567BC26-21AC-4B36-AAE8-C23AD276B54E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7399020" y="1920240"/>
-              <a:ext cx="175260" cy="175260"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:grpFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="テキスト ボックス 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6ED47F9-68DB-47C7-868A-D3143B3C8B33}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8069580" y="3383279"/>
-            <a:ext cx="1059180" cy="525780"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-              <a:t>ギミック</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="爆発: 8 pt 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{101DAE92-E937-41D3-B92E-28BF357FC470}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8481060" y="3467100"/>
-            <a:ext cx="1211580" cy="777240"/>
-          </a:xfrm>
-          <a:prstGeom prst="irregularSeal1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFFF00"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>クリック</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="矢印: 左 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558D7CA0-CED1-4BAA-AF8E-CB055C02C15E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="1641996">
-            <a:off x="8915398" y="3878575"/>
-            <a:ext cx="327660" cy="266700"/>
-          </a:xfrm>
-          <a:prstGeom prst="leftArrow">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val 15385"/>
-              <a:gd name="adj2" fmla="val 71154"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>68579</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>91439</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="グループ化 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD8098F4-27C4-4417-90E6-B3FC8C6867AA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="9761220" y="754379"/>
-          <a:ext cx="3208020" cy="1851660"/>
-          <a:chOff x="10454640" y="609599"/>
-          <a:chExt cx="3208020" cy="1851660"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="正方形/長方形 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE68CF09-9B55-4017-8176-47FD757CBC60}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10454640" y="609599"/>
-            <a:ext cx="3208020" cy="1851660"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="14" name="グループ化 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CEB1A2-E2CF-4E84-B1A1-4A12B02F45F8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="10736579" y="1569719"/>
-            <a:ext cx="264837" cy="518160"/>
-            <a:chOff x="9895133" y="316678"/>
-            <a:chExt cx="175260" cy="342900"/>
-          </a:xfrm>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="17" name="二等辺三角形 16">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{694E4319-3994-4537-8E71-06AB33378A8C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9902753" y="415738"/>
-              <a:ext cx="167640" cy="243840"/>
-            </a:xfrm>
-            <a:prstGeom prst="triangle">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:grpFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="楕円 17">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100E4002-4BF0-47B4-97C3-3C576F7B2620}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9895133" y="316678"/>
-              <a:ext cx="175260" cy="175260"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:grpFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="テキスト ボックス 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A4A48A-66E8-4C07-B7A5-06A8F6403118}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11841480" y="960119"/>
-            <a:ext cx="1059180" cy="525780"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-              <a:t>ギミック</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="矢印: 左 15">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90CA0320-5F35-498A-A903-79C5944CF6D5}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="1641996">
-            <a:off x="12710158" y="1386835"/>
-            <a:ext cx="327660" cy="266700"/>
-          </a:xfrm>
-          <a:prstGeom prst="leftArrow">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val 15385"/>
-              <a:gd name="adj2" fmla="val 71154"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="テキスト ボックス 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73E18257-7CFA-4B7A-9D6F-97CD0E58698B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10668000" y="2442210"/>
-          <a:ext cx="1729740" cy="699135"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>押しっぱなしすると、</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ゲーム一時停止</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>22859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>45719</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2081,15 +1552,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>129539</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>68579</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>158156</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>129539</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2105,8 +1576,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6271259" y="4411979"/>
-          <a:ext cx="264837" cy="518160"/>
+          <a:off x="7749539" y="15841979"/>
+          <a:ext cx="266742" cy="537210"/>
           <a:chOff x="9895133" y="316678"/>
           <a:chExt cx="175260" cy="342900"/>
         </a:xfrm>
@@ -2211,15 +1682,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>144779</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>213359</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2280,15 +1751,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2357,16 +1828,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2381,7 +1852,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6697980" y="5353050"/>
+          <a:off x="6736080" y="5324475"/>
           <a:ext cx="1874520" cy="699135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2434,15 +1905,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2499,15 +1970,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>76198</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>114292</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>167638</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>152392</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2570,15 +2041,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2643,15 +2114,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2708,15 +2179,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2781,15 +2252,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2837,7 +2308,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-            <a:t>飛ばせる</a:t>
+            <a:t>飛ばす</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2846,15 +2317,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2923,15 +2394,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2988,15 +2459,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3061,15 +2532,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3126,15 +2597,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3199,15 +2670,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3255,7 +2726,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-            <a:t>飛ばせる</a:t>
+            <a:t>飛ばす</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3264,15 +2735,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>68579</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>83819</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>97196</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>144779</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3288,8 +2759,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9989819" y="4427219"/>
-          <a:ext cx="264837" cy="518160"/>
+          <a:off x="11498579" y="15857219"/>
+          <a:ext cx="266742" cy="537210"/>
           <a:chOff x="9895133" y="316678"/>
           <a:chExt cx="175260" cy="342900"/>
         </a:xfrm>
@@ -3394,15 +2865,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3471,15 +2942,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>53</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>7619</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>175257</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>99059</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>213357</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3542,83 +3013,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="矢印: 右 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{157D674B-DA27-4EE4-BDF5-6C6800235C5C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9340215" y="1550670"/>
-          <a:ext cx="491490" cy="299085"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>106208</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>116891</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>159548</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>64965</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3678,15 +3081,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3749,15 +3152,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3821,15 +3224,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>34032</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>161878</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>130808</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>22843</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3882,6 +3285,3091 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>41910</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>127635</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="83" name="グループ化 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DF6CF58-E5EC-4A48-9679-B1D4AADA55C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7524750" y="12096750"/>
+          <a:ext cx="3232785" cy="1899285"/>
+          <a:chOff x="6682740" y="3032759"/>
+          <a:chExt cx="3208020" cy="1851660"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="84" name="正方形/長方形 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E41EB7-DAD6-4DA6-995C-BDE0AEA6EE15}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6682740" y="3032759"/>
+            <a:ext cx="3208020" cy="1851660"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="85" name="グループ化 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F51B83F7-EA20-472F-946D-75B11873066B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6964679" y="3992879"/>
+            <a:ext cx="264837" cy="518160"/>
+            <a:chOff x="7399020" y="1920240"/>
+            <a:chExt cx="175260" cy="342900"/>
+          </a:xfrm>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="89" name="二等辺三角形 88">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C806848-C301-49FA-ADA1-852D0E1C6FCF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7406640" y="2019300"/>
+              <a:ext cx="167640" cy="243840"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="90" name="楕円 89">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6567BC26-21AC-4B36-AAE8-C23AD276B54E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7399020" y="1920240"/>
+              <a:ext cx="175260" cy="175260"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="86" name="テキスト ボックス 85">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6ED47F9-68DB-47C7-868A-D3143B3C8B33}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8069580" y="3383279"/>
+            <a:ext cx="1059180" cy="525780"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+              <a:t>ギミック</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="87" name="爆発: 8 pt 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{101DAE92-E937-41D3-B92E-28BF357FC470}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8481060" y="3467100"/>
+            <a:ext cx="1211580" cy="777240"/>
+          </a:xfrm>
+          <a:prstGeom prst="irregularSeal1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>クリック</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="88" name="矢印: 左 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558D7CA0-CED1-4BAA-AF8E-CB055C02C15E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="1641996">
+            <a:off x="8915398" y="3878575"/>
+            <a:ext cx="327660" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftArrow">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 15385"/>
+              <a:gd name="adj2" fmla="val 71154"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>150495</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>49530</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="91" name="グループ化 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD8098F4-27C4-4417-90E6-B3FC8C6867AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11342370" y="12119610"/>
+          <a:ext cx="3232785" cy="1899285"/>
+          <a:chOff x="10454640" y="609599"/>
+          <a:chExt cx="3208020" cy="1851660"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="92" name="正方形/長方形 91">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE68CF09-9B55-4017-8176-47FD757CBC60}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10454640" y="609599"/>
+            <a:ext cx="3208020" cy="1851660"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="93" name="グループ化 92">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CEB1A2-E2CF-4E84-B1A1-4A12B02F45F8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="10736579" y="1569719"/>
+            <a:ext cx="264837" cy="518160"/>
+            <a:chOff x="9895133" y="316678"/>
+            <a:chExt cx="175260" cy="342900"/>
+          </a:xfrm>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="96" name="二等辺三角形 95">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{694E4319-3994-4537-8E71-06AB33378A8C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9902753" y="415738"/>
+              <a:ext cx="167640" cy="243840"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="97" name="楕円 96">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100E4002-4BF0-47B4-97C3-3C576F7B2620}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9895133" y="316678"/>
+              <a:ext cx="175260" cy="175260"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="94" name="テキスト ボックス 93">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A4A48A-66E8-4C07-B7A5-06A8F6403118}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11841480" y="960119"/>
+            <a:ext cx="1059180" cy="525780"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+              <a:t>ギミック</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="95" name="矢印: 左 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90CA0320-5F35-498A-A903-79C5944CF6D5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="1641996">
+            <a:off x="12710158" y="1386835"/>
+            <a:ext cx="327660" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftArrow">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 15385"/>
+              <a:gd name="adj2" fmla="val 71154"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>127635</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>3811</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="矢印: 右 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{157D674B-DA27-4EE4-BDF5-6C6800235C5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9414510" y="11191876"/>
+          <a:ext cx="491490" cy="299085"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73E18257-7CFA-4B7A-9D6F-97CD0E58698B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10668000" y="2442210"/>
+          <a:ext cx="1729740" cy="699135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>押しっぱなしすると、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ゲーム一時停止</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>127635</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>232410</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="99" name="グループ化 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DF6CF58-E5EC-4A48-9679-B1D4AADA55C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7134225" y="2143125"/>
+          <a:ext cx="3232785" cy="1899285"/>
+          <a:chOff x="6682740" y="3032759"/>
+          <a:chExt cx="3208020" cy="1851660"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="100" name="正方形/長方形 99">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E41EB7-DAD6-4DA6-995C-BDE0AEA6EE15}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6682740" y="3032759"/>
+            <a:ext cx="3208020" cy="1851660"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="101" name="グループ化 100">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F51B83F7-EA20-472F-946D-75B11873066B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6964679" y="3992879"/>
+            <a:ext cx="264837" cy="518160"/>
+            <a:chOff x="7399020" y="1920240"/>
+            <a:chExt cx="175260" cy="342900"/>
+          </a:xfrm>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="105" name="二等辺三角形 104">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C806848-C301-49FA-ADA1-852D0E1C6FCF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7406640" y="2019300"/>
+              <a:ext cx="167640" cy="243840"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="106" name="楕円 105">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6567BC26-21AC-4B36-AAE8-C23AD276B54E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7399020" y="1920240"/>
+              <a:ext cx="175260" cy="175260"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="102" name="テキスト ボックス 101">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6ED47F9-68DB-47C7-868A-D3143B3C8B33}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8069580" y="3383279"/>
+            <a:ext cx="1059180" cy="525780"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+              <a:t>ギミック</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="103" name="爆発: 8 pt 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{101DAE92-E937-41D3-B92E-28BF357FC470}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8481060" y="3467100"/>
+            <a:ext cx="1211580" cy="777240"/>
+          </a:xfrm>
+          <a:prstGeom prst="irregularSeal1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>クリック</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="104" name="矢印: 左 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558D7CA0-CED1-4BAA-AF8E-CB055C02C15E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="1641996">
+            <a:off x="8915398" y="3878575"/>
+            <a:ext cx="327660" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftArrow">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 15385"/>
+              <a:gd name="adj2" fmla="val 71154"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>234314</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>24806</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>91439</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="108" name="グループ化 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6CC5A53-E819-47A6-8A07-68F857DB7FBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11664314" y="3126104"/>
+          <a:ext cx="266742" cy="537210"/>
+          <a:chOff x="9895133" y="316678"/>
+          <a:chExt cx="175260" cy="342900"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="109" name="二等辺三角形 108">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F6216F-5596-4741-8D30-3220ED896EBA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9902753" y="415738"/>
+            <a:ext cx="167640" cy="243840"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="110" name="楕円 109">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5978ED44-0DB9-4B36-95C4-9DC0C51A1772}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9895133" y="316678"/>
+            <a:ext cx="175260" cy="175260"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>232410</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="テキスト ボックス 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F26E7E2-558E-4045-979F-8F04AF412835}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12155805" y="4057650"/>
+          <a:ext cx="1874520" cy="699135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>説明と選択肢が表示する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>配置が固定する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>230505</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>194310</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="テキスト ボックス 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F26E7E2-558E-4045-979F-8F04AF412835}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7850505" y="3781425"/>
+          <a:ext cx="1874520" cy="699135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>クリックすると、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>一時停止する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="テキスト ボックス 119"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="800100"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="楕円 120"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12468225" y="2657475"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>188595</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>222884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>87630</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7619</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="131" name="グループ化 130"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11380470" y="2127884"/>
+          <a:ext cx="3232785" cy="1927860"/>
+          <a:chOff x="11380470" y="2127884"/>
+          <a:chExt cx="3232785" cy="1927860"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="107" name="正方形/長方形 106">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A1712E-F111-429C-948D-28E740682D64}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11380470" y="2127884"/>
+            <a:ext cx="3232785" cy="1927860"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="111" name="テキスト ボックス 110">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF27138-9A4B-4594-B9F0-9B6FA18C232F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11439525" y="2409825"/>
+            <a:ext cx="805815" cy="1289685"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>説明</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>使い方</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="116" name="テキスト ボックス 115">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6ED47F9-68DB-47C7-868A-D3143B3C8B33}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12925425" y="2495550"/>
+            <a:ext cx="1067357" cy="539303"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+              <a:t>ギミック</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="118" name="テキスト ボックス 117">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF27138-9A4B-4594-B9F0-9B6FA18C232F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13677900" y="2381250"/>
+            <a:ext cx="805815" cy="1289685"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>説明２</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="122" name="円 121"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12477750" y="2667000"/>
+            <a:ext cx="952500" cy="952500"/>
+          </a:xfrm>
+          <a:prstGeom prst="pie">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 9049816"/>
+              <a:gd name="adj2" fmla="val 16200000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="123" name="円 122"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="7889567">
+            <a:off x="12487274" y="2667000"/>
+            <a:ext cx="952500" cy="952500"/>
+          </a:xfrm>
+          <a:prstGeom prst="pie">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 8363922"/>
+              <a:gd name="adj2" fmla="val 15741877"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="124" name="円 123"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="15309417">
+            <a:off x="12487274" y="2667000"/>
+            <a:ext cx="952500" cy="952500"/>
+          </a:xfrm>
+          <a:prstGeom prst="pie">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 8363922"/>
+              <a:gd name="adj2" fmla="val 15266821"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="125" name="テキスト ボックス 124"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12506325" y="2828925"/>
+            <a:ext cx="466794" cy="328423"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+              <a:t>オン</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="126" name="テキスト ボックス 125"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12963525" y="2819400"/>
+            <a:ext cx="466794" cy="328360"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+              <a:t>オフ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="127" name="テキスト ボックス 126"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12525375" y="3267075"/>
+            <a:ext cx="889987" cy="328360"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+              <a:t>キャンセル</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="119" name="矢印: 左 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558D7CA0-CED1-4BAA-AF8E-CB055C02C15E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="1641996">
+            <a:off x="13287374" y="3067051"/>
+            <a:ext cx="330189" cy="273560"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftArrow">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 15385"/>
+              <a:gd name="adj2" fmla="val 71154"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165736</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="矢印: 右 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{157D674B-DA27-4EE4-BDF5-6C6800235C5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10633710" y="2962276"/>
+          <a:ext cx="491490" cy="299085"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>133847</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>166559</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>194807</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>200946</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="矢印: 右 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{157D674B-DA27-4EE4-BDF5-6C6800235C5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="7442200">
+          <a:off x="10624634" y="4677647"/>
+          <a:ext cx="1225012" cy="299085"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>112395</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>213359</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>236219</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="132" name="グループ化 131"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9399270" y="5452109"/>
+          <a:ext cx="3232785" cy="1927860"/>
+          <a:chOff x="11380470" y="2127884"/>
+          <a:chExt cx="3232785" cy="1927860"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="133" name="正方形/長方形 132">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A1712E-F111-429C-948D-28E740682D64}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11380470" y="2127884"/>
+            <a:ext cx="3232785" cy="1927860"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="134" name="テキスト ボックス 133">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF27138-9A4B-4594-B9F0-9B6FA18C232F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11439525" y="2409825"/>
+            <a:ext cx="805815" cy="1289685"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>説明</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>使い方</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="135" name="テキスト ボックス 134">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6ED47F9-68DB-47C7-868A-D3143B3C8B33}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12925425" y="2495550"/>
+            <a:ext cx="1067357" cy="539303"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+              <a:t>ギミック</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="136" name="テキスト ボックス 135">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF27138-9A4B-4594-B9F0-9B6FA18C232F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13677900" y="2381250"/>
+            <a:ext cx="805815" cy="1289685"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>説明２</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="137" name="円 136"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12477750" y="2667000"/>
+            <a:ext cx="952500" cy="952500"/>
+          </a:xfrm>
+          <a:prstGeom prst="pie">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 9049816"/>
+              <a:gd name="adj2" fmla="val 16200000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="138" name="円 137"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="7889567">
+            <a:off x="12487274" y="2667000"/>
+            <a:ext cx="952500" cy="952500"/>
+          </a:xfrm>
+          <a:prstGeom prst="pie">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 8363922"/>
+              <a:gd name="adj2" fmla="val 15741877"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="139" name="円 138"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="15309417">
+            <a:off x="12487274" y="2667000"/>
+            <a:ext cx="952500" cy="952500"/>
+          </a:xfrm>
+          <a:prstGeom prst="pie">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 8363922"/>
+              <a:gd name="adj2" fmla="val 15266821"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="140" name="テキスト ボックス 139"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12506325" y="2828925"/>
+            <a:ext cx="466794" cy="328423"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+              <a:t>オン</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="141" name="テキスト ボックス 140"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12963525" y="2819400"/>
+            <a:ext cx="466794" cy="328360"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+              <a:t>オフ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="142" name="テキスト ボックス 141"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12525375" y="3267075"/>
+            <a:ext cx="889987" cy="328360"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+              <a:t>キャンセル</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="143" name="矢印: 左 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558D7CA0-CED1-4BAA-AF8E-CB055C02C15E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="1641996">
+            <a:off x="13287374" y="3067051"/>
+            <a:ext cx="330189" cy="273560"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftArrow">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 15385"/>
+              <a:gd name="adj2" fmla="val 71154"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>125558</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>168581</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="爆発: 8 pt 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{101DAE92-E937-41D3-B92E-28BF357FC470}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10810875" y="6038850"/>
+          <a:ext cx="1220933" cy="797231"/>
+        </a:xfrm>
+        <a:prstGeom prst="irregularSeal1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>234939</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25910</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="矢印: 左 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558D7CA0-CED1-4BAA-AF8E-CB055C02C15E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1641996">
+          <a:off x="11334750" y="6419850"/>
+          <a:ext cx="330189" cy="273560"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 15385"/>
+            <a:gd name="adj2" fmla="val 71154"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>11429</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="テキスト ボックス 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F26E7E2-558E-4045-979F-8F04AF412835}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10012679" y="7315200"/>
+          <a:ext cx="2093595" cy="699135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>一時停止を解いて、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「オフ」の選択肢を発動する</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4152,35 +6640,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BQ13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BQ15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AF16" sqref="AF16"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="5" width="3.09765625" style="2"/>
-    <col min="6" max="6" width="16.3984375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="3.09765625" style="2"/>
+    <col min="1" max="5" width="3.125" style="2"/>
+    <col min="6" max="6" width="16.375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="3.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -4239,19 +6727,19 @@
       <c r="BP1" s="1"/>
       <c r="BQ1" s="1"/>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+    <row r="2" spans="1:69" x14ac:dyDescent="0.4">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -4310,662 +6798,798 @@
       <c r="BP2" s="1"/>
       <c r="BQ2" s="1"/>
     </row>
-    <row r="3" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C4" s="10" t="s">
+    <row r="3" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="10" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="11"/>
-      <c r="AR4" s="11"/>
-      <c r="AS4" s="11"/>
-      <c r="AT4" s="11"/>
-      <c r="AU4" s="11"/>
-      <c r="AV4" s="11"/>
-      <c r="AW4" s="11"/>
-      <c r="AX4" s="11"/>
-      <c r="AY4" s="11"/>
-      <c r="AZ4" s="12"/>
-      <c r="BA4" s="10" t="s">
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="14"/>
+      <c r="BA4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="BB4" s="11"/>
-      <c r="BC4" s="11"/>
-      <c r="BD4" s="11"/>
-      <c r="BE4" s="11"/>
-      <c r="BF4" s="11"/>
-      <c r="BG4" s="12"/>
+      <c r="BB4" s="13"/>
+      <c r="BC4" s="13"/>
+      <c r="BD4" s="13"/>
+      <c r="BE4" s="13"/>
+      <c r="BF4" s="13"/>
+      <c r="BG4" s="14"/>
     </row>
-    <row r="5" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="10" t="s">
+    <row r="5" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="13"/>
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="15">
+        <v>43617</v>
+      </c>
+      <c r="BB5" s="13"/>
+      <c r="BC5" s="13"/>
+      <c r="BD5" s="13"/>
+      <c r="BE5" s="13"/>
+      <c r="BF5" s="13"/>
+      <c r="BG5" s="14"/>
+    </row>
+    <row r="6" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="14"/>
+      <c r="BA6" s="15">
+        <v>43612</v>
+      </c>
+      <c r="BB6" s="13"/>
+      <c r="BC6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BE6" s="13"/>
+      <c r="BF6" s="13"/>
+      <c r="BG6" s="14"/>
+    </row>
+    <row r="7" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="11"/>
-      <c r="AK5" s="11"/>
-      <c r="AL5" s="11"/>
-      <c r="AM5" s="11"/>
-      <c r="AN5" s="11"/>
-      <c r="AO5" s="11"/>
-      <c r="AP5" s="11"/>
-      <c r="AQ5" s="11"/>
-      <c r="AR5" s="11"/>
-      <c r="AS5" s="11"/>
-      <c r="AT5" s="11"/>
-      <c r="AU5" s="11"/>
-      <c r="AV5" s="11"/>
-      <c r="AW5" s="11"/>
-      <c r="AX5" s="11"/>
-      <c r="AY5" s="11"/>
-      <c r="AZ5" s="12"/>
-      <c r="BA5" s="13">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
+      <c r="AV7" s="13"/>
+      <c r="AW7" s="13"/>
+      <c r="AX7" s="13"/>
+      <c r="AY7" s="13"/>
+      <c r="AZ7" s="14"/>
+      <c r="BA7" s="15">
         <v>43603</v>
       </c>
-      <c r="BB5" s="11"/>
-      <c r="BC5" s="11"/>
-      <c r="BD5" s="11"/>
-      <c r="BE5" s="11"/>
-      <c r="BF5" s="11"/>
-      <c r="BG5" s="12"/>
+      <c r="BB7" s="13"/>
+      <c r="BC7" s="13"/>
+      <c r="BD7" s="13"/>
+      <c r="BE7" s="13"/>
+      <c r="BF7" s="13"/>
+      <c r="BG7" s="14"/>
     </row>
-    <row r="6" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C6" s="10" t="s">
+    <row r="8" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="11"/>
-      <c r="AL6" s="11"/>
-      <c r="AM6" s="11"/>
-      <c r="AN6" s="11"/>
-      <c r="AO6" s="11"/>
-      <c r="AP6" s="11"/>
-      <c r="AQ6" s="11"/>
-      <c r="AR6" s="11"/>
-      <c r="AS6" s="11"/>
-      <c r="AT6" s="11"/>
-      <c r="AU6" s="11"/>
-      <c r="AV6" s="11"/>
-      <c r="AW6" s="11"/>
-      <c r="AX6" s="11"/>
-      <c r="AY6" s="11"/>
-      <c r="AZ6" s="12"/>
-      <c r="BA6" s="13">
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="13"/>
+      <c r="AY8" s="13"/>
+      <c r="AZ8" s="14"/>
+      <c r="BA8" s="15">
         <v>43597</v>
       </c>
-      <c r="BB6" s="11"/>
-      <c r="BC6" s="11"/>
-      <c r="BD6" s="11"/>
-      <c r="BE6" s="11"/>
-      <c r="BF6" s="11"/>
-      <c r="BG6" s="12"/>
+      <c r="BB8" s="13"/>
+      <c r="BC8" s="13"/>
+      <c r="BD8" s="13"/>
+      <c r="BE8" s="13"/>
+      <c r="BF8" s="13"/>
+      <c r="BG8" s="14"/>
     </row>
-    <row r="7" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C7" s="10" t="s">
+    <row r="9" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="11"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="11"/>
-      <c r="AR7" s="11"/>
-      <c r="AS7" s="11"/>
-      <c r="AT7" s="11"/>
-      <c r="AU7" s="11"/>
-      <c r="AV7" s="11"/>
-      <c r="AW7" s="11"/>
-      <c r="AX7" s="11"/>
-      <c r="AY7" s="11"/>
-      <c r="AZ7" s="12"/>
-      <c r="BA7" s="13">
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="13"/>
+      <c r="AX9" s="13"/>
+      <c r="AY9" s="13"/>
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="15">
         <v>43597</v>
       </c>
-      <c r="BB7" s="11"/>
-      <c r="BC7" s="11"/>
-      <c r="BD7" s="11"/>
-      <c r="BE7" s="11"/>
-      <c r="BF7" s="11"/>
-      <c r="BG7" s="12"/>
+      <c r="BB9" s="13"/>
+      <c r="BC9" s="13"/>
+      <c r="BD9" s="13"/>
+      <c r="BE9" s="13"/>
+      <c r="BF9" s="13"/>
+      <c r="BG9" s="14"/>
     </row>
-    <row r="8" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="10" t="s">
+    <row r="10" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
-      <c r="AK8" s="11"/>
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="11"/>
-      <c r="AN8" s="11"/>
-      <c r="AO8" s="11"/>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="11"/>
-      <c r="AT8" s="11"/>
-      <c r="AU8" s="11"/>
-      <c r="AV8" s="11"/>
-      <c r="AW8" s="11"/>
-      <c r="AX8" s="11"/>
-      <c r="AY8" s="11"/>
-      <c r="AZ8" s="12"/>
-      <c r="BA8" s="13">
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="13"/>
+      <c r="AX10" s="13"/>
+      <c r="AY10" s="13"/>
+      <c r="AZ10" s="14"/>
+      <c r="BA10" s="15">
         <v>43595</v>
       </c>
-      <c r="BB8" s="11"/>
-      <c r="BC8" s="11"/>
-      <c r="BD8" s="11"/>
-      <c r="BE8" s="11"/>
-      <c r="BF8" s="11"/>
-      <c r="BG8" s="12"/>
+      <c r="BB10" s="13"/>
+      <c r="BC10" s="13"/>
+      <c r="BD10" s="13"/>
+      <c r="BE10" s="13"/>
+      <c r="BF10" s="13"/>
+      <c r="BG10" s="14"/>
     </row>
-    <row r="9" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C9" s="10" t="s">
+    <row r="11" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="10" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="11"/>
-      <c r="AJ9" s="11"/>
-      <c r="AK9" s="11"/>
-      <c r="AL9" s="11"/>
-      <c r="AM9" s="11"/>
-      <c r="AN9" s="11"/>
-      <c r="AO9" s="11"/>
-      <c r="AP9" s="11"/>
-      <c r="AQ9" s="11"/>
-      <c r="AR9" s="11"/>
-      <c r="AS9" s="11"/>
-      <c r="AT9" s="11"/>
-      <c r="AU9" s="11"/>
-      <c r="AV9" s="11"/>
-      <c r="AW9" s="11"/>
-      <c r="AX9" s="11"/>
-      <c r="AY9" s="11"/>
-      <c r="AZ9" s="12"/>
-      <c r="BA9" s="13">
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="13"/>
+      <c r="AX11" s="13"/>
+      <c r="AY11" s="13"/>
+      <c r="AZ11" s="14"/>
+      <c r="BA11" s="15">
         <v>43595</v>
       </c>
-      <c r="BB9" s="11"/>
-      <c r="BC9" s="11"/>
-      <c r="BD9" s="11"/>
-      <c r="BE9" s="11"/>
-      <c r="BF9" s="11"/>
-      <c r="BG9" s="12"/>
+      <c r="BB11" s="13"/>
+      <c r="BC11" s="13"/>
+      <c r="BD11" s="13"/>
+      <c r="BE11" s="13"/>
+      <c r="BF11" s="13"/>
+      <c r="BG11" s="14"/>
     </row>
-    <row r="10" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C10" s="10" t="s">
+    <row r="12" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="10" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="11"/>
-      <c r="AJ10" s="11"/>
-      <c r="AK10" s="11"/>
-      <c r="AL10" s="11"/>
-      <c r="AM10" s="11"/>
-      <c r="AN10" s="11"/>
-      <c r="AO10" s="11"/>
-      <c r="AP10" s="11"/>
-      <c r="AQ10" s="11"/>
-      <c r="AR10" s="11"/>
-      <c r="AS10" s="11"/>
-      <c r="AT10" s="11"/>
-      <c r="AU10" s="11"/>
-      <c r="AV10" s="11"/>
-      <c r="AW10" s="11"/>
-      <c r="AX10" s="11"/>
-      <c r="AY10" s="11"/>
-      <c r="AZ10" s="12"/>
-      <c r="BA10" s="13">
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
+      <c r="AX12" s="13"/>
+      <c r="AY12" s="13"/>
+      <c r="AZ12" s="14"/>
+      <c r="BA12" s="15">
         <v>43593</v>
       </c>
-      <c r="BB10" s="11"/>
-      <c r="BC10" s="11"/>
-      <c r="BD10" s="11"/>
-      <c r="BE10" s="11"/>
-      <c r="BF10" s="11"/>
-      <c r="BG10" s="12"/>
+      <c r="BB12" s="13"/>
+      <c r="BC12" s="13"/>
+      <c r="BD12" s="13"/>
+      <c r="BE12" s="13"/>
+      <c r="BF12" s="13"/>
+      <c r="BG12" s="14"/>
     </row>
-    <row r="11" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C11" s="10" t="s">
+    <row r="13" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="10" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="11"/>
-      <c r="AJ11" s="11"/>
-      <c r="AK11" s="11"/>
-      <c r="AL11" s="11"/>
-      <c r="AM11" s="11"/>
-      <c r="AN11" s="11"/>
-      <c r="AO11" s="11"/>
-      <c r="AP11" s="11"/>
-      <c r="AQ11" s="11"/>
-      <c r="AR11" s="11"/>
-      <c r="AS11" s="11"/>
-      <c r="AT11" s="11"/>
-      <c r="AU11" s="11"/>
-      <c r="AV11" s="11"/>
-      <c r="AW11" s="11"/>
-      <c r="AX11" s="11"/>
-      <c r="AY11" s="11"/>
-      <c r="AZ11" s="12"/>
-      <c r="BA11" s="13">
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
+      <c r="AV13" s="13"/>
+      <c r="AW13" s="13"/>
+      <c r="AX13" s="13"/>
+      <c r="AY13" s="13"/>
+      <c r="AZ13" s="14"/>
+      <c r="BA13" s="15">
         <v>43586</v>
       </c>
-      <c r="BB11" s="11"/>
-      <c r="BC11" s="11"/>
-      <c r="BD11" s="11"/>
-      <c r="BE11" s="11"/>
-      <c r="BF11" s="11"/>
-      <c r="BG11" s="12"/>
+      <c r="BB13" s="13"/>
+      <c r="BC13" s="13"/>
+      <c r="BD13" s="13"/>
+      <c r="BE13" s="13"/>
+      <c r="BF13" s="13"/>
+      <c r="BG13" s="14"/>
     </row>
-    <row r="12" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="10" t="s">
+    <row r="14" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="10" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="11"/>
-      <c r="AL12" s="11"/>
-      <c r="AM12" s="11"/>
-      <c r="AN12" s="11"/>
-      <c r="AO12" s="11"/>
-      <c r="AP12" s="11"/>
-      <c r="AQ12" s="11"/>
-      <c r="AR12" s="11"/>
-      <c r="AS12" s="11"/>
-      <c r="AT12" s="11"/>
-      <c r="AU12" s="11"/>
-      <c r="AV12" s="11"/>
-      <c r="AW12" s="11"/>
-      <c r="AX12" s="11"/>
-      <c r="AY12" s="11"/>
-      <c r="AZ12" s="12"/>
-      <c r="BA12" s="13">
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
+      <c r="AV14" s="13"/>
+      <c r="AW14" s="13"/>
+      <c r="AX14" s="13"/>
+      <c r="AY14" s="13"/>
+      <c r="AZ14" s="14"/>
+      <c r="BA14" s="15">
         <v>43586</v>
       </c>
-      <c r="BB12" s="11"/>
-      <c r="BC12" s="11"/>
-      <c r="BD12" s="11"/>
-      <c r="BE12" s="11"/>
-      <c r="BF12" s="11"/>
-      <c r="BG12" s="12"/>
+      <c r="BB14" s="13"/>
+      <c r="BC14" s="13"/>
+      <c r="BD14" s="13"/>
+      <c r="BE14" s="13"/>
+      <c r="BF14" s="13"/>
+      <c r="BG14" s="14"/>
     </row>
-    <row r="13" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="10" t="s">
+    <row r="15" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="11"/>
-      <c r="AJ13" s="11"/>
-      <c r="AK13" s="11"/>
-      <c r="AL13" s="11"/>
-      <c r="AM13" s="11"/>
-      <c r="AN13" s="11"/>
-      <c r="AO13" s="11"/>
-      <c r="AP13" s="11"/>
-      <c r="AQ13" s="11"/>
-      <c r="AR13" s="11"/>
-      <c r="AS13" s="11"/>
-      <c r="AT13" s="11"/>
-      <c r="AU13" s="11"/>
-      <c r="AV13" s="11"/>
-      <c r="AW13" s="11"/>
-      <c r="AX13" s="11"/>
-      <c r="AY13" s="11"/>
-      <c r="AZ13" s="12"/>
-      <c r="BA13" s="13">
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="13"/>
+      <c r="AV15" s="13"/>
+      <c r="AW15" s="13"/>
+      <c r="AX15" s="13"/>
+      <c r="AY15" s="13"/>
+      <c r="AZ15" s="14"/>
+      <c r="BA15" s="15">
         <v>43584</v>
       </c>
-      <c r="BB13" s="11"/>
-      <c r="BC13" s="11"/>
-      <c r="BD13" s="11"/>
-      <c r="BE13" s="11"/>
-      <c r="BF13" s="11"/>
-      <c r="BG13" s="12"/>
+      <c r="BB15" s="13"/>
+      <c r="BC15" s="13"/>
+      <c r="BD15" s="13"/>
+      <c r="BE15" s="13"/>
+      <c r="BF15" s="13"/>
+      <c r="BG15" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="37">
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:AZ15"/>
+    <mergeCell ref="BA15:BG15"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="G13:AZ13"/>
     <mergeCell ref="BA13:BG13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:AZ14"/>
+    <mergeCell ref="BA14:BG14"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="G11:AZ11"/>
     <mergeCell ref="BA11:BG11"/>
@@ -4978,16 +7602,16 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="G10:AZ10"/>
     <mergeCell ref="BA10:BG10"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:AZ7"/>
-    <mergeCell ref="BA7:BG7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AZ8"/>
-    <mergeCell ref="BA8:BG8"/>
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="G4:AZ4"/>
     <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AZ8"/>
+    <mergeCell ref="BA8:BG8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:AZ7"/>
+    <mergeCell ref="BA7:BG7"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="G6:AZ6"/>
     <mergeCell ref="BA6:BG6"/>
@@ -4995,42 +7619,42 @@
     <mergeCell ref="G5:AZ5"/>
     <mergeCell ref="BA5:BG5"/>
   </mergeCells>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BN45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BN72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:Y27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="3.09765625" style="2"/>
+    <col min="1" max="16384" width="3.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.4">
+      <c r="A1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -5084,21 +7708,21 @@
       <c r="BM1" s="3"/>
       <c r="BN1" s="3"/>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.45">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
+    <row r="2" spans="1:66" x14ac:dyDescent="0.4">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -5152,7 +7776,7 @@
       <c r="BM2" s="3"/>
       <c r="BN2" s="3"/>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
@@ -5178,19 +7802,19 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.4">
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.4">
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.4">
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -5214,63 +7838,59 @@
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.45">
-      <c r="C12" s="28" t="s">
-        <v>46</v>
+    <row r="12" spans="1:66" x14ac:dyDescent="0.4">
+      <c r="C12" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.4">
       <c r="C13" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.45">
-      <c r="C15" s="2" t="s">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.4">
+      <c r="C15" s="32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.4">
+      <c r="C17" s="32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO17" s="2" t="s">
-        <v>25</v>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.4">
+      <c r="D18" s="32" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="19" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>24</v>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.4">
+      <c r="C20" s="32" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="21" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C21" s="2" t="s">
-        <v>26</v>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.4">
+      <c r="D21" s="32" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="23" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C23" s="28" t="s">
-        <v>47</v>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.4">
+      <c r="C23" s="32" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="24" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C24" s="2" t="s">
-        <v>27</v>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.4">
+      <c r="C24" s="32" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="25" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="C25" s="2" t="s">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.4">
+      <c r="C25" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.4">
+      <c r="E27" s="33" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="E27" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -5290,30 +7910,27 @@
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
     </row>
-    <row r="29" spans="3:41" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:25" x14ac:dyDescent="0.4">
       <c r="E29" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="30" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="E30" s="2" t="s">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.4">
+      <c r="E30" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.4">
+      <c r="E31" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="E31" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="3:41" x14ac:dyDescent="0.45">
-      <c r="E32" s="2" t="s">
+    <row r="34" spans="3:24" x14ac:dyDescent="0.4">
+      <c r="C34" s="4" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C34" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -5337,104 +7954,245 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
     </row>
-    <row r="36" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:24" x14ac:dyDescent="0.4">
       <c r="C36" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="3:24" x14ac:dyDescent="0.4">
+      <c r="C37" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C37" s="7" t="s">
+    <row r="38" spans="3:24" x14ac:dyDescent="0.4">
+      <c r="C38" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C38" s="7" t="s">
+    <row r="39" spans="3:24" x14ac:dyDescent="0.4">
+      <c r="C39" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C39" s="7" t="s">
+    <row r="40" spans="3:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="41" spans="3:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C41" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="24"/>
+    </row>
+    <row r="42" spans="3:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C42" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="27"/>
+    </row>
+    <row r="43" spans="3:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C43" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="30"/>
+    </row>
+    <row r="44" spans="3:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C44" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="27"/>
+    </row>
+    <row r="45" spans="3:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C45" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="49" spans="3:47" x14ac:dyDescent="0.4">
+      <c r="C49" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+    </row>
+    <row r="51" spans="3:47" x14ac:dyDescent="0.4">
+      <c r="C51" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="3:47" x14ac:dyDescent="0.4">
+      <c r="C52" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="3:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="41" spans="3:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C41" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="21"/>
+    <row r="54" spans="3:47" x14ac:dyDescent="0.4">
+      <c r="C54" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="42" spans="3:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C42" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="24"/>
+    <row r="56" spans="3:47" x14ac:dyDescent="0.4">
+      <c r="C56" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="43" spans="3:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C43" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="27"/>
+    <row r="58" spans="3:47" x14ac:dyDescent="0.4">
+      <c r="C58" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
     </row>
-    <row r="44" spans="3:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C44" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="24"/>
+    <row r="60" spans="3:47" x14ac:dyDescent="0.4">
+      <c r="C60" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="45" spans="3:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C45" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="17"/>
+    <row r="61" spans="3:47" x14ac:dyDescent="0.4">
+      <c r="D61" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="3:47" x14ac:dyDescent="0.4">
+      <c r="C63" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="3:47" x14ac:dyDescent="0.4">
+      <c r="C64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU64" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="3:23" x14ac:dyDescent="0.4">
+      <c r="C65" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="3:23" x14ac:dyDescent="0.4">
+      <c r="E67" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+    </row>
+    <row r="69" spans="3:23" x14ac:dyDescent="0.4">
+      <c r="E69" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="3:23" x14ac:dyDescent="0.4">
+      <c r="E70" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="3:23" x14ac:dyDescent="0.4">
+      <c r="E71" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="3:23" x14ac:dyDescent="0.4">
+      <c r="E72" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="C45:J45"/>
     <mergeCell ref="A1:N2"/>
     <mergeCell ref="C41:J41"/>
     <mergeCell ref="C42:J42"/>
     <mergeCell ref="C43:J43"/>
     <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C58:Q58"/>
   </mergeCells>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="10"/>
   <hyperlinks>
-    <hyperlink ref="C45:J45" location="ギミック!AJ178" display="C-2馬" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C44:J44" location="操作仕様!AJ114" display="B-4彫像" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C43:J43" location="ギミック!AJ97" display="B-3花瓶" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C42:J42" location="ギミック!BA44" display="A2-聖杯" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C45:J45" location="ギミック!AJ178" display="C-2馬"/>
+    <hyperlink ref="C44:J44" location="操作仕様!AJ114" display="B-4彫像"/>
+    <hyperlink ref="C43:J43" location="ギミック!AJ97" display="B-3花瓶"/>
+    <hyperlink ref="C42:J42" location="ギミック!BA44" display="A2-聖杯"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>